--- a/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,970 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r357986422-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>225119</t>
+  </si>
+  <si>
+    <t>357986422</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Do not put yourself through this. Seriously.</t>
+  </si>
+  <si>
+    <t>This place is not worth slumming it for. If you are on a limited budget and really need the cheapest place to stay and don't care what it's like - I will tell you to sleep outside and avoid this place.Front desk is extremely rude, man and woman who manned it while we visited.While we were gone visiting friends one day we came back to find my boyfriends hydrocodone pills were stolen out of his bag which were in a sock.Ridiculous.We stay at SOOO many places and we may be used to nicer accommodations but this place was absolutely appalling. We checked out early and thankfully travelocity refunded our un-stayed nights.Not worth writing anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>This place is not worth slumming it for. If you are on a limited budget and really need the cheapest place to stay and don't care what it's like - I will tell you to sleep outside and avoid this place.Front desk is extremely rude, man and woman who manned it while we visited.While we were gone visiting friends one day we came back to find my boyfriends hydrocodone pills were stolen out of his bag which were in a sock.Ridiculous.We stay at SOOO many places and we may be used to nicer accommodations but this place was absolutely appalling. We checked out early and thankfully travelocity refunded our un-stayed nights.Not worth writing anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r298760324-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>298760324</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Good customer service and safe</t>
+  </si>
+  <si>
+    <t>I have visited this hotel many times and the customer service is wonderful. Pete is an amazing gentlemen who will make you stay worth while.  Single rooms are small but what do you expect, it's a Microtel. That is the concept- economical clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>I have visited this hotel many times and the customer service is wonderful. Pete is an amazing gentlemen who will make you stay worth while.  Single rooms are small but what do you expect, it's a Microtel. That is the concept- economical clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r297239703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>297239703</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>I am a KLLM student who has recently stayed at Microtel for some time and I am soooo glad the staff was helpful, concerned about students getting to and from school on time, assisted in any way possible to provide what was needed in the room, and just showed genuine interest in us as customers.  I would stay again and again.  The van driver was the best!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>I am a KLLM student who has recently stayed at Microtel for some time and I am soooo glad the staff was helpful, concerned about students getting to and from school on time, assisted in any way possible to provide what was needed in the room, and just showed genuine interest in us as customers.  I would stay again and again.  The van driver was the best!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r286044928-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>286044928</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r285181231-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>285181231</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Bad customer service and old hotel</t>
+  </si>
+  <si>
+    <t>I have had a pleasurable time staying at other locations. This time we selected a location we have stayed at at least 7 times in the last year and have been impressed with the value. We go to check in tonight and they don't have our reservation. We pull it up on email and it is for the South Fort Worth location. We call Wyndham CRS and explain what is going on. The CRS person then calls the south location and the guy will not release the reservation. So instead of paying for a room and not using it we drive 45 minutes to this dive. The guys didn't care at all about the customer. He was very unprofessional. Due to this I will not be staying in another Wyndham property. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have had a pleasurable time staying at other locations. This time we selected a location we have stayed at at least 7 times in the last year and have been impressed with the value. We go to check in tonight and they don't have our reservation. We pull it up on email and it is for the South Fort Worth location. We call Wyndham CRS and explain what is going on. The CRS person then calls the south location and the guy will not release the reservation. So instead of paying for a room and not using it we drive 45 minutes to this dive. The guys didn't care at all about the customer. He was very unprofessional. Due to this I will not be staying in another Wyndham property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r279630786-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>279630786</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>microtel, get what u pay for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great rate, but ZERO amenities. have to go to front desk for a hair dryer. ultra limited breakfast but again, it beat staying in a motel 6. nice staff up front  </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r271650703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>271650703</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Fast check-in, convenient location</t>
+  </si>
+  <si>
+    <t>Had my family of 20 stay at Microtel for one night and they loved it! From the quick check-in to the free breakfast the next morning. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Had my family of 20 stay at Microtel for one night and they loved it! From the quick check-in to the free breakfast the next morning. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r269221416-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>269221416</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Wedding Weekend!</t>
+  </si>
+  <si>
+    <t>Really loved this place.  It was in a great location for our needs. The room was very clean, bed comfortable and great breakfast. The price was just right!  Upon arrival, we were warmly welcomed by the staff and general manager, Carlton, who went out of his way to be accommodating!  Thank you  Carlton, we will be back :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Really loved this place.  It was in a great location for our needs. The room was very clean, bed comfortable and great breakfast. The price was just right!  Upon arrival, we were warmly welcomed by the staff and general manager, Carlton, who went out of his way to be accommodating!  Thank you  Carlton, we will be back :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r262762802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>262762802</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>I almost didn't book this room due to mixed reviews on Trip Advisor. I booked the 2 queen bedroom, which was new, very spacious, and clean. I actually wish I could have stayed longer. Based on reviews, I did bring some breakfast food and their breakfast was not so great. It was also weird that there was no shampoo or conditioner. however, it was overall a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I almost didn't book this room due to mixed reviews on Trip Advisor. I booked the 2 queen bedroom, which was new, very spacious, and clean. I actually wish I could have stayed longer. Based on reviews, I did bring some breakfast food and their breakfast was not so great. It was also weird that there was no shampoo or conditioner. however, it was overall a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r257348658-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>257348658</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Poor Place to stay</t>
+  </si>
+  <si>
+    <t>Room was dirty and things were broke the TV didn't work. Air conditioning/heater did not work. Oh and you could hear every person and room around you. The Internet didn't work</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r254392702-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>254392702</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r252175213-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>252175213</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r240297348-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>240297348</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r237889697-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>237889697</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>microtel inn burleson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People were nice room was nasty dusty chairs broke didnt wanna sit. Really anywhere was all stained jp didnt sllep well all in all just needs a good deep cleaning my husband and i use to stay here all time it has been a fe_w years .i dont think it has been cleaned since then  </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r235715368-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>235715368</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Decent for price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel itself was very clean - however it's older and needs some updating and upgrading for sure.  The rooms with one full size bed are extremely small.  I've never had a hotel room this small so it was kind of humorous to us to have such a small room! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r224903560-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>224903560</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r223498770-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>223498770</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Not bad for the money</t>
+  </si>
+  <si>
+    <t>It was a decent place, unfortunately a couple of crickets and water roaches tried to stay without pitching in. Needs a little updating but stayed to only sleep a few hours.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r222776687-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>222776687</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r216421889-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>216421889</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214387134-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>214387134</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214003656-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>214003656</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>It was okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you're accustomed to staying in nice hotels, don't stay here, but if you're an average working family, it's ok. </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r213033802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213033802</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r211414594-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>211414594</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>Rooms small and no microwave, refrigerator, coffee pot in room.</t>
+  </si>
+  <si>
+    <t>Single room does not have anything extra i.e. refrigerator, coffee pot, microwave, hair dryer. The room was very, very small.  Had nothing extra.  It was clean but there was only cereal and tiny muffins for breakfast with coffee, milk or orange juice to drink.  This had no swimming pool or gym that we were aware of.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r210576196-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>210576196</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>All Most as Bad as Camping out</t>
+  </si>
+  <si>
+    <t>it was late, we were driving from OKC to San Antino. wanted to get south of Ft Worth. We made it, picked the mictotell Inn and Suites in South Fort Worth. after getting the front desk person to come to the window, He was SLOW real SLOW, tried wanting to rest. Gave us a room, guess what the door would not open. So back down, He came up to attempt to get the door open. He could not either, So back down, wife waiting in the hall with our stuff, again SLOW. once in the room was average. Nothing like the photo's behind the front desk. My wife and I rolled into the middle of the bed, just like we do when sleeping on an air mattress while caming out. Shower OK, TV OK, AC OK. ready to get down the road. It was 730am there free breakfast was a joke, not may options and even worst. NO COFFEE, they were out had to wait an a new pot. I could have brewed a pot on my camp stove quicker then I got some fresh coffee that am. Would I stay here again, NO Shame on the Wyndham group you are better than that.MoreShow less</t>
+  </si>
+  <si>
+    <t>it was late, we were driving from OKC to San Antino. wanted to get south of Ft Worth. We made it, picked the mictotell Inn and Suites in South Fort Worth. after getting the front desk person to come to the window, He was SLOW real SLOW, tried wanting to rest. Gave us a room, guess what the door would not open. So back down, He came up to attempt to get the door open. He could not either, So back down, wife waiting in the hall with our stuff, again SLOW. once in the room was average. Nothing like the photo's behind the front desk. My wife and I rolled into the middle of the bed, just like we do when sleeping on an air mattress while caming out. Shower OK, TV OK, AC OK. ready to get down the road. It was 730am there free breakfast was a joke, not may options and even worst. NO COFFEE, they were out had to wait an a new pot. I could have brewed a pot on my camp stove quicker then I got some fresh coffee that am. Would I stay here again, NO Shame on the Wyndham group you are better than that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r207529340-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>207529340</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>OKAY PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Enjoyed our two nights here.  Perhaps a little distance from downtown Ft. Worth but certainly worth the few minutes drive.  Anyone in this area of Texas knows a car is necessary so the drive is no problem really.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205670203-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205670203</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Just okay.  Would that the price I paid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here on night on our way to San Antonio.  Place was clean,  but the room was very small.  Not somewhere that I'd want to stay more than a couple nights.  Skip the breakfast as there isn't much there, not even any coffee.  Bed was decent and the staff has been friendly.  Overall, the stay was fine for one night.  </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205007161-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>205007161</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r201723807-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>201723807</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>I reserved and confirmed a non-smoking room. I checked in it was a smoking room. They did not have non-smoking rooms available. The races were in town, it was 9:00 at night in Ft. Worth TX and I was told there were no availabilities anywhere. The room was not clean, smelled horrible of cigarette smoke. We sprayed the room with deodorizer; needless to say; that didn't work and had to open the windows due to smell. It was a cold night. I would not recommend this motel.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200390289-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200390289</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200264062-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>200264062</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r197947369-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>197947369</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r193493972-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>193493972</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r188821874-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188821874</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170780269-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>170780269</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Clean and inexpensive</t>
+  </si>
+  <si>
+    <t>We needed a room for the night after a family reunion in Fort Worth. This property is very inexpensive, so we didn't expect too much. But, all we needed was a place to sleep and it was conveniently located. The service at check-in was very cordial and efficient. The property was clean and well-kept. The room was simple but quite adequate. Breakfast was very limited and unappealing and there were only 4 seats in the room, so we opted for breakfast elsewhere. (Note: No nearby restaurants, we had to drive a few miles) Overall, the accommodations at this property were fine. If you need clean, simple and inexpensive - this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We needed a room for the night after a family reunion in Fort Worth. This property is very inexpensive, so we didn't expect too much. But, all we needed was a place to sleep and it was conveniently located. The service at check-in was very cordial and efficient. The property was clean and well-kept. The room was simple but quite adequate. Breakfast was very limited and unappealing and there were only 4 seats in the room, so we opted for breakfast elsewhere. (Note: No nearby restaurants, we had to drive a few miles) Overall, the accommodations at this property were fine. If you need clean, simple and inexpensive - this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170374474-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>170374474</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r169083119-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>169083119</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r163127713-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>163127713</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r162664870-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>162664870</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r161326222-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>161326222</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r159089390-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>159089390</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Great Value, No Frills, Delivered exactly as promised</t>
+  </si>
+  <si>
+    <t>Booked our room, 2 Queen Beds, online with a late check in.  Property is right of the freeway with easy access, and check in process was efficient.  After a long trip, we were in our room after a 5 minute process.The room is spartan, but has some nice amenities, Microwave, Cable TV, refrigerator, Free WiFi.  A desk and numerous outlets for your electronic devices.  The refrigerator is noisy, so since we were not using it, I unplugged it.  Also the cords for the microwave and refrigerator snaked across the desk to an outlet on the wall.  The "closet" is a cabinet attached to the wall with a rod inside to hang your clothes, and there are 2 drawers in the desk for the remainder of your clothes.  Not a complaint, just an observation.  Overall a good bargain for what you get, and will take this property over any Motel 6 hands down.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Booked our room, 2 Queen Beds, online with a late check in.  Property is right of the freeway with easy access, and check in process was efficient.  After a long trip, we were in our room after a 5 minute process.The room is spartan, but has some nice amenities, Microwave, Cable TV, refrigerator, Free WiFi.  A desk and numerous outlets for your electronic devices.  The refrigerator is noisy, so since we were not using it, I unplugged it.  Also the cords for the microwave and refrigerator snaked across the desk to an outlet on the wall.  The "closet" is a cabinet attached to the wall with a rod inside to hang your clothes, and there are 2 drawers in the desk for the remainder of your clothes.  Not a complaint, just an observation.  Overall a good bargain for what you get, and will take this property over any Motel 6 hands down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156741088-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>156741088</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156600900-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>156600900</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r150095583-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150095583</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Burleston Microtel is my best value motel in town</t>
+  </si>
+  <si>
+    <t>I regularly stay at the Burleson Microtel because it is a well-kept facility staffed by friendly people at the best rate in town!  My room is always clean and ready, and the staff treats me exceptionally well.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147855354-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147855354</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>The owners/staff are very nice, but...</t>
+  </si>
+  <si>
+    <t>I concur with one reviewer who wrote "The location is very convenient and the staff very nice..." We stayed here due to wanting to be at the same hotel some friends had chosen; however, I won't do so again. There is no hair dryer, no iron, the towels are only one step above thin, the phone didn't work (wanted to call front desk about noisy people in next room) and the cleanliness of our room upon arrival was average (better on the 2nd day where it was very obviously cleaned). Noise was definitely a problem two nights out of three, but I encounter that even in upper end hotels where people have no clue. I didn't think the beds were terribly uncomfortable, but I had brought a couple of my own pillows, which always helps.On the plus side, once we got the code, the internet worked. Request the top floor...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I concur with one reviewer who wrote "The location is very convenient and the staff very nice..." We stayed here due to wanting to be at the same hotel some friends had chosen; however, I won't do so again. There is no hair dryer, no iron, the towels are only one step above thin, the phone didn't work (wanted to call front desk about noisy people in next room) and the cleanliness of our room upon arrival was average (better on the 2nd day where it was very obviously cleaned). Noise was definitely a problem two nights out of three, but I encounter that even in upper end hotels where people have no clue. I didn't think the beds were terribly uncomfortable, but I had brought a couple of my own pillows, which always helps.On the plus side, once we got the code, the internet worked. Request the top floor...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147822788-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147822788</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Very dirty &amp; smelled</t>
+  </si>
+  <si>
+    <t>The location is very convenient &amp; the staff very nice but I probably won't ever stay here again. The floor I was on smelled like urine &amp; so did my room. You could tell the hallway had not been vacuumed in quite sometime. The floor in my room was just as bad. The walls were dingy &amp; the window lounge was covered with stains. The bathroom wasn't that clean either. There was beard/mustache shavings on the sink. I couldn't sleep well because of the smell but it was so late &amp; I was exhausted. It's a shame too . It's a lovely hotel on the outside. I was very disappointed. =\MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is very convenient &amp; the staff very nice but I probably won't ever stay here again. The floor I was on smelled like urine &amp; so did my room. You could tell the hallway had not been vacuumed in quite sometime. The floor in my room was just as bad. The walls were dingy &amp; the window lounge was covered with stains. The bathroom wasn't that clean either. There was beard/mustache shavings on the sink. I couldn't sleep well because of the smell but it was so late &amp; I was exhausted. It's a shame too . It's a lovely hotel on the outside. I was very disappointed. =\More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145273135-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>145273135</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145175399-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>145175399</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>Will always stay here when visiting family in Ft. Worth - Dallas area.  What makes your hotel so special...the charming lady at the front desk...so friendly and makes the guests feel special.  Always takes the time to visit and make you feel welcome.  Your hotel would be at a loss without her.  This is our third time to your hotel and she always greets us with warmth.  The hotel is convenient....thank goodness it has smoking rooms and windows that open for ventilation....and the price is perfect.  Don't change....it's great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144872845-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>144872845</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144012361-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>144012361</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143728270-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>143728270</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143482904-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>143482904</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>The rooms where small as expected but were comfortable and had plenty of space for an enjoyable stay. The staff was kind throughout my stay and were happy to help with any questions. The only thing disappointing was the breakfast. It was minimum in its selection and so you might want to plan to eat out for breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r119028793-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>119028793</t>
+  </si>
+  <si>
+    <t>10/07/2011</t>
+  </si>
+  <si>
+    <t>Good hotel - Good location</t>
+  </si>
+  <si>
+    <t>My company and I stay in this hotel a couple of times per year on business trips to the area.  This location is always clean and the people at the desk are always friendly.  The beds and linens are not 5 star quality but they are very nice.  It is easy to get on and off of the freeway to this location and the parking is good.  I would recommend this hotel to anyone staying in the area.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r97032627-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>97032627</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Lodging</t>
+  </si>
+  <si>
+    <t>We actually stayed for 45 days in January &amp; February.  This is a nice place to stay.  The managers/staff are very courteous.  Our room was comfortable and quiet.  I would definitely stay in this motel again.  This is a well run motel.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r92823879-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>92823879</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>The Good with the Bad</t>
+  </si>
+  <si>
+    <t>To start with the good:
+1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something
+2.) Staff was quite friendly and responded to requests quickly
+3.) Room was clean
+4.) Wireless internet was free
+5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.
+The bad:
+1.) Room was very very dim even with the lights turned on
+2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up
+3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time
+4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)
+5.) The air conditioner sputtered all night--but we still sweated. In January.
+6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.
+The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room....To start with the good:1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something2.) Staff was quite friendly and responded to requests quickly3.) Room was clean4.) Wireless internet was free5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.The bad:1.) Room was very very dim even with the lights turned on2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)5.) The air conditioner sputtered all night--but we still sweated. In January.6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room. If the price is right, there's nothing wrong with this place, but  if you hav3e $16 extra dollars there is definitely better out there...MoreShow less</t>
+  </si>
+  <si>
+    <t>To start with the good:
+1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something
+2.) Staff was quite friendly and responded to requests quickly
+3.) Room was clean
+4.) Wireless internet was free
+5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.
+The bad:
+1.) Room was very very dim even with the lights turned on
+2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up
+3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time
+4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)
+5.) The air conditioner sputtered all night--but we still sweated. In January.
+6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.
+The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room....To start with the good:1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something2.) Staff was quite friendly and responded to requests quickly3.) Room was clean4.) Wireless internet was free5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.The bad:1.) Room was very very dim even with the lights turned on2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)5.) The air conditioner sputtered all night--but we still sweated. In January.6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room. If the price is right, there's nothing wrong with this place, but  if you hav3e $16 extra dollars there is definitely better out there...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r62807182-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>62807182</t>
+  </si>
+  <si>
+    <t>04/29/2010</t>
+  </si>
+  <si>
+    <t>Good Stay....Okay Price</t>
+  </si>
+  <si>
+    <t>Microtel Fort Worth South is basically in Burleson. Access to I-35W is reasonably easy and non-rush hour commute time to the center of Fort Worth takes about 15-20 minutes. The hotel was clean, with nice bedding and basic amenities. Some reasonable amentities were omitted like shampoo in the room. The desk will provide it for free if you ask but at over $50 a night, shouldn't it just be placed in the room? Likewise for a hair dryer, it has to be borrowed from the desk. The breakfast is basic, but nice to have available. Television offered a good selection of channels. No restaurants at the exit so you'll need a car. Next exit south offers many places to eat and Burleson is just a bit further. Watch your room placement, road noise was noticable, but our room was in the front that faced the freeway. It wasn't a real nuisance for us. This Microtel represented a good, economical choice on race weekend when we had to be in town for a wedding. If some business takes you to South Fort Worth you could do a lot worse than staying here. All in all, not a bad place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Microtel Fort Worth South is basically in Burleson. Access to I-35W is reasonably easy and non-rush hour commute time to the center of Fort Worth takes about 15-20 minutes. The hotel was clean, with nice bedding and basic amenities. Some reasonable amentities were omitted like shampoo in the room. The desk will provide it for free if you ask but at over $50 a night, shouldn't it just be placed in the room? Likewise for a hair dryer, it has to be borrowed from the desk. The breakfast is basic, but nice to have available. Television offered a good selection of channels. No restaurants at the exit so you'll need a car. Next exit south offers many places to eat and Burleson is just a bit further. Watch your room placement, road noise was noticable, but our room was in the front that faced the freeway. It wasn't a real nuisance for us. This Microtel represented a good, economical choice on race weekend when we had to be in town for a wedding. If some business takes you to South Fort Worth you could do a lot worse than staying here. All in all, not a bad place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r49090912-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>49090912</t>
+  </si>
+  <si>
+    <t>11/12/2009</t>
+  </si>
+  <si>
+    <t>cute trendy feeling hotel</t>
+  </si>
+  <si>
+    <t>very spacious and comfortable. enjoyed the decor. not to close to restaurants tho.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r30216577-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>30216577</t>
+  </si>
+  <si>
+    <t>05/18/2009</t>
+  </si>
+  <si>
+    <t>Overall good experience, service not exceptional</t>
+  </si>
+  <si>
+    <t>Clean room, comfortable bedding. Adequate breakfast. Reserved through Priceline.  While I understand a double bed is all that is guaranteed through Priceline, I disappointed that I was charged an extra fee for a room with two beds when the property appeared to have many empty rooms.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3645834-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>3645834</t>
+  </si>
+  <si>
+    <t>07/06/2005</t>
+  </si>
+  <si>
+    <t>Not as impressed as the first reviewer ....</t>
+  </si>
+  <si>
+    <t>When we got there the people are very nice to deal with I had no issue with that at all. Polite and courteous were words that come to mind. They even let us check in early (thank you for that). The lobby and hallways very very clean and nice looking. I had high hopes.That is unforunately where the plesantness ends. The hallway where our room was located smelled. It smelled like a house full of cats. I don't know why .... and it wasn't horribly strong but it was there and not very pleasant. The  rooms were very institutional with glaring flourescent lighting and light switches in weird places. When we turned the air on this moldy musty smell permeated the whole room and did so the whole time we were there. The smell was there when we entered but got worse the longer we were there. Basically the longer the air was on the worse it got. The bathroom wasn't the cleanest it was clean but there was a hair on the outside of the tub and I killed 2 spiders later in the evening in the shower.I would not stay there again in fact this is my second bad experience with Priceline hotels and i just can't use that service anymore.Sorry to burst anyones bubble but sometimes good deals are not that good in the end.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we got there the people are very nice to deal with I had no issue with that at all. Polite and courteous were words that come to mind. They even let us check in early (thank you for that). The lobby and hallways very very clean and nice looking. I had high hopes.That is unforunately where the plesantness ends. The hallway where our room was located smelled. It smelled like a house full of cats. I don't know why .... and it wasn't horribly strong but it was there and not very pleasant. The  rooms were very institutional with glaring flourescent lighting and light switches in weird places. When we turned the air on this moldy musty smell permeated the whole room and did so the whole time we were there. The smell was there when we entered but got worse the longer we were there. Basically the longer the air was on the worse it got. The bathroom wasn't the cleanest it was clean but there was a hair on the outside of the tub and I killed 2 spiders later in the evening in the shower.I would not stay there again in fact this is my second bad experience with Priceline hotels and i just can't use that service anymore.Sorry to burst anyones bubble but sometimes good deals are not that good in the end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3253315-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>3253315</t>
+  </si>
+  <si>
+    <t>03/04/2005</t>
+  </si>
+  <si>
+    <t>Surprisingly acceptable</t>
+  </si>
+  <si>
+    <t>I made a split last minute decision to stay at this hotel on my way to Austin.  It was 10 pm and raining like cats and dogs.  I did not want to get into an accident so I just pulled over and rented a room here.  By the looks of it, it seemed to be a budget hotel with not much else.  However, when I got inside, I was surprised!  Their rooms started at $39 and went up to $59 for a suite.  So, I decided to splurge and get a suite.  When I opened up my room, I was definitely even more suprised!  Not only was it very large, but there was a mini-frig, microwave, coffeemaker with many coffee options, large cabinets and space, nice, new, large couch, large tiled bathroom with nice shower, no free bathroom stuff though, nice large tv, desk, armoire, table, etc.  The unusual thing was that this room had a bay window and, in that bay window, there was a cushioned window seat.  Nice touch.  The only drawback I found to this room is that the room was decorated with dark green carpet and furniture but pale pink cabinetry.  I usually stay at 4 or 5 star hotels so this kind of bothered me.  The room was extremely clean.  The front desk guy called about 20 minutes after I got to my room to see if everything was acceptable to me.  
+Parking was excellent....I made a split last minute decision to stay at this hotel on my way to Austin.  It was 10 pm and raining like cats and dogs.  I did not want to get into an accident so I just pulled over and rented a room here.  By the looks of it, it seemed to be a budget hotel with not much else.  However, when I got inside, I was surprised!  Their rooms started at $39 and went up to $59 for a suite.  So, I decided to splurge and get a suite.  When I opened up my room, I was definitely even more suprised!  Not only was it very large, but there was a mini-frig, microwave, coffeemaker with many coffee options, large cabinets and space, nice, new, large couch, large tiled bathroom with nice shower, no free bathroom stuff though, nice large tv, desk, armoire, table, etc.  The unusual thing was that this room had a bay window and, in that bay window, there was a cushioned window seat.  Nice touch.  The only drawback I found to this room is that the room was decorated with dark green carpet and furniture but pale pink cabinetry.  I usually stay at 4 or 5 star hotels so this kind of bothered me.  The room was extremely clean.  The front desk guy called about 20 minutes after I got to my room to see if everything was acceptable to me.  Parking was excellent.  Staff were very courteous.  They offered breakfast the next morning but, when I got there about 8 am, they only had some stale bagels and muffins, no cream cheese or jelly, coffee machine was empty and coke machine costs $1.25 and snacks cost $.75.  At least I had coffee in my room.  Overall, I would give this hotel a 3 star rating.  I would rate it above average in its class but would not give it an excellent rating in its class because of the awful breakfast experience.  It is not only the night you stay at a hotel that is important but the morning after also.  Email me if you have any questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>I made a split last minute decision to stay at this hotel on my way to Austin.  It was 10 pm and raining like cats and dogs.  I did not want to get into an accident so I just pulled over and rented a room here.  By the looks of it, it seemed to be a budget hotel with not much else.  However, when I got inside, I was surprised!  Their rooms started at $39 and went up to $59 for a suite.  So, I decided to splurge and get a suite.  When I opened up my room, I was definitely even more suprised!  Not only was it very large, but there was a mini-frig, microwave, coffeemaker with many coffee options, large cabinets and space, nice, new, large couch, large tiled bathroom with nice shower, no free bathroom stuff though, nice large tv, desk, armoire, table, etc.  The unusual thing was that this room had a bay window and, in that bay window, there was a cushioned window seat.  Nice touch.  The only drawback I found to this room is that the room was decorated with dark green carpet and furniture but pale pink cabinetry.  I usually stay at 4 or 5 star hotels so this kind of bothered me.  The room was extremely clean.  The front desk guy called about 20 minutes after I got to my room to see if everything was acceptable to me.  
+Parking was excellent....I made a split last minute decision to stay at this hotel on my way to Austin.  It was 10 pm and raining like cats and dogs.  I did not want to get into an accident so I just pulled over and rented a room here.  By the looks of it, it seemed to be a budget hotel with not much else.  However, when I got inside, I was surprised!  Their rooms started at $39 and went up to $59 for a suite.  So, I decided to splurge and get a suite.  When I opened up my room, I was definitely even more suprised!  Not only was it very large, but there was a mini-frig, microwave, coffeemaker with many coffee options, large cabinets and space, nice, new, large couch, large tiled bathroom with nice shower, no free bathroom stuff though, nice large tv, desk, armoire, table, etc.  The unusual thing was that this room had a bay window and, in that bay window, there was a cushioned window seat.  Nice touch.  The only drawback I found to this room is that the room was decorated with dark green carpet and furniture but pale pink cabinetry.  I usually stay at 4 or 5 star hotels so this kind of bothered me.  The room was extremely clean.  The front desk guy called about 20 minutes after I got to my room to see if everything was acceptable to me.  Parking was excellent.  Staff were very courteous.  They offered breakfast the next morning but, when I got there about 8 am, they only had some stale bagels and muffins, no cream cheese or jelly, coffee machine was empty and coke machine costs $1.25 and snacks cost $.75.  At least I had coffee in my room.  Overall, I would give this hotel a 3 star rating.  I would rate it above average in its class but would not give it an excellent rating in its class because of the awful breakfast experience.  It is not only the night you stay at a hotel that is important but the morning after also.  Email me if you have any questions.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1612,3769 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>222</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>244</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>244</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>252</v>
+      </c>
+      <c r="J41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s">
+        <v>255</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J42" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" t="s">
+        <v>96</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>263</v>
+      </c>
+      <c r="J43" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s">
+        <v>269</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" t="s">
+        <v>274</v>
+      </c>
+      <c r="L45" t="s">
+        <v>275</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" t="s">
+        <v>280</v>
+      </c>
+      <c r="K46" t="s">
+        <v>281</v>
+      </c>
+      <c r="L46" t="s">
+        <v>282</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>284</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>285</v>
+      </c>
+      <c r="J47" t="s">
+        <v>286</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>287</v>
+      </c>
+      <c r="O47" t="s">
+        <v>193</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J48" t="s">
+        <v>290</v>
+      </c>
+      <c r="K48" t="s">
+        <v>291</v>
+      </c>
+      <c r="L48" t="s">
+        <v>292</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>287</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>293</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>294</v>
+      </c>
+      <c r="J49" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>287</v>
+      </c>
+      <c r="O49" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50" t="s">
+        <v>298</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>299</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>301</v>
+      </c>
+      <c r="J51" t="s">
+        <v>302</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>299</v>
+      </c>
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" t="s">
+        <v>305</v>
+      </c>
+      <c r="K52" t="s">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s">
+        <v>307</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>299</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>309</v>
+      </c>
+      <c r="J53" t="s">
+        <v>310</v>
+      </c>
+      <c r="K53" t="s">
+        <v>311</v>
+      </c>
+      <c r="L53" t="s">
+        <v>312</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>313</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" t="s">
+        <v>316</v>
+      </c>
+      <c r="K54" t="s">
+        <v>317</v>
+      </c>
+      <c r="L54" t="s">
+        <v>318</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>319</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>321</v>
+      </c>
+      <c r="J55" t="s">
+        <v>322</v>
+      </c>
+      <c r="K55" t="s">
+        <v>323</v>
+      </c>
+      <c r="L55" t="s">
+        <v>324</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>319</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>327</v>
+      </c>
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56" t="s">
+        <v>329</v>
+      </c>
+      <c r="L56" t="s">
+        <v>330</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>331</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>333</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J57" t="s">
+        <v>335</v>
+      </c>
+      <c r="K57" t="s">
+        <v>336</v>
+      </c>
+      <c r="L57" t="s">
+        <v>337</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>338</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>339</v>
+      </c>
+      <c r="J58" t="s">
+        <v>340</v>
+      </c>
+      <c r="K58" t="s">
+        <v>341</v>
+      </c>
+      <c r="L58" t="s">
+        <v>342</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>343</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>344</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>345</v>
+      </c>
+      <c r="J59" t="s">
+        <v>346</v>
+      </c>
+      <c r="K59" t="s">
+        <v>347</v>
+      </c>
+      <c r="L59" t="s">
+        <v>348</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>350</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>351</v>
+      </c>
+      <c r="J60" t="s">
+        <v>352</v>
+      </c>
+      <c r="K60" t="s">
+        <v>353</v>
+      </c>
+      <c r="L60" t="s">
+        <v>354</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Brooklyn L</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This place is not worth slumming it for. If you are on a limited budget and really need the cheapest place to stay and don't care what it's like - I will tell you to sleep outside and avoid this place.Front desk is extremely rude, man and woman who manned it while we visited.While we were gone visiting friends one day we came back to find my boyfriends hydrocodone pills were stolen out of his bag which were in a sock.Ridiculous.We stay at SOOO many places and we may be used to nicer accommodations but this place was absolutely appalling. We checked out early and thankfully travelocity refunded our un-stayed nights.Not worth writing anymore.More</t>
   </si>
   <si>
+    <t>H M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r298760324-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>I have visited this hotel many times and the customer service is wonderful. Pete is an amazing gentlemen who will make you stay worth while.  Single rooms are small but what do you expect, it's a Microtel. That is the concept- economical clean room.More</t>
   </si>
   <si>
+    <t>Lenita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r297239703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I am a KLLM student who has recently stayed at Microtel for some time and I am soooo glad the staff was helpful, concerned about students getting to and from school on time, assisted in any way possible to provide what was needed in the room, and just showed genuine interest in us as customers.  I would stay again and again.  The van driver was the best!!!More</t>
   </si>
   <si>
+    <t>Tara C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r286044928-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>red99buell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r285181231-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>I have had a pleasurable time staying at other locations. This time we selected a location we have stayed at at least 7 times in the last year and have been impressed with the value. We go to check in tonight and they don't have our reservation. We pull it up on email and it is for the South Fort Worth location. We call Wyndham CRS and explain what is going on. The CRS person then calls the south location and the guy will not release the reservation. So instead of paying for a room and not using it we drive 45 minutes to this dive. The guys didn't care at all about the customer. He was very unprofessional. Due to this I will not be staying in another Wyndham property. More</t>
   </si>
   <si>
+    <t>Joe W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r279630786-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Bre C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r271650703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>Had my family of 20 stay at Microtel for one night and they loved it! From the quick check-in to the free breakfast the next morning. :)More</t>
   </si>
   <si>
+    <t>Debbie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r269221416-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Really loved this place.  It was in a great location for our needs. The room was very clean, bed comfortable and great breakfast. The price was just right!  Upon arrival, we were warmly welcomed by the staff and general manager, Carlton, who went out of his way to be accommodating!  Thank you  Carlton, we will be back :-)More</t>
   </si>
   <si>
+    <t>Sandra K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r262762802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>I almost didn't book this room due to mixed reviews on Trip Advisor. I booked the 2 queen bedroom, which was new, very spacious, and clean. I actually wish I could have stayed longer. Based on reviews, I did bring some breakfast food and their breakfast was not so great. It was also weird that there was no shampoo or conditioner. however, it was overall a good stay.More</t>
   </si>
   <si>
+    <t>Donald H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r257348658-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>collegetravel3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r254392702-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>02/15/2015</t>
   </si>
   <si>
+    <t>tender1958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r252175213-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Glen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r240297348-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Yolanda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r237889697-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Cathy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r235715368-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t xml:space="preserve">The hotel itself was very clean - however it's older and needs some updating and upgrading for sure.  The rooms with one full size bed are extremely small.  I've never had a hotel room this small so it was kind of humorous to us to have such a small room! </t>
   </si>
   <si>
+    <t>Mary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r224903560-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -474,6 +522,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>lcarranza2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r223498770-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>It was a decent place, unfortunately a couple of crickets and water roaches tried to stay without pitching in. Needs a little updating but stayed to only sleep a few hours.</t>
   </si>
   <si>
+    <t>Jane M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r222776687-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,6 +552,9 @@
     <t>08/18/2014</t>
   </si>
   <si>
+    <t>Stuart L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r216421889-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,6 +567,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214387134-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,6 +579,9 @@
     <t>07/08/2014</t>
   </si>
   <si>
+    <t>Mk A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214003656-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -537,6 +600,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Lashawn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r213033802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -546,6 +612,9 @@
     <t>07/01/2014</t>
   </si>
   <si>
+    <t>Wilma S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r211414594-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +630,9 @@
     <t>Single room does not have anything extra i.e. refrigerator, coffee pot, microwave, hair dryer. The room was very, very small.  Had nothing extra.  It was clean but there was only cereal and tiny muffins for breakfast with coffee, milk or orange juice to drink.  This had no swimming pool or gym that we were aware of.</t>
   </si>
   <si>
+    <t>RippedOff42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r210576196-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -579,6 +651,9 @@
     <t>it was late, we were driving from OKC to San Antino. wanted to get south of Ft Worth. We made it, picked the mictotell Inn and Suites in South Fort Worth. after getting the front desk person to come to the window, He was SLOW real SLOW, tried wanting to rest. Gave us a room, guess what the door would not open. So back down, He came up to attempt to get the door open. He could not either, So back down, wife waiting in the hall with our stuff, again SLOW. once in the room was average. Nothing like the photo's behind the front desk. My wife and I rolled into the middle of the bed, just like we do when sleeping on an air mattress while caming out. Shower OK, TV OK, AC OK. ready to get down the road. It was 730am there free breakfast was a joke, not may options and even worst. NO COFFEE, they were out had to wait an a new pot. I could have brewed a pot on my camp stove quicker then I got some fresh coffee that am. Would I stay here again, NO Shame on the Wyndham group you are better than that.More</t>
   </si>
   <si>
+    <t>teddybear1935</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r207529340-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,6 +675,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Craig S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205670203-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,6 +696,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Sharon H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205007161-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -627,6 +708,9 @@
     <t>05/10/2014</t>
   </si>
   <si>
+    <t>Glen E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r201723807-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -645,6 +729,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Melanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200390289-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -654,6 +741,9 @@
     <t>04/08/2014</t>
   </si>
   <si>
+    <t>Jesuis H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200264062-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -663,6 +753,9 @@
     <t>04/07/2014</t>
   </si>
   <si>
+    <t>Stephen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r197947369-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -675,6 +768,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Lauri H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r193493972-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -687,6 +783,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Jakeena S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r188821874-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -699,6 +798,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Babs_GP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170780269-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -720,6 +822,9 @@
     <t>We needed a room for the night after a family reunion in Fort Worth. This property is very inexpensive, so we didn't expect too much. But, all we needed was a place to sleep and it was conveniently located. The service at check-in was very cordial and efficient. The property was clean and well-kept. The room was simple but quite adequate. Breakfast was very limited and unappealing and there were only 4 seats in the room, so we opted for breakfast elsewhere. (Note: No nearby restaurants, we had to drive a few miles) Overall, the accommodations at this property were fine. If you need clean, simple and inexpensive - this is the place.More</t>
   </si>
   <si>
+    <t>Johanna W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170374474-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -732,6 +837,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Etherine E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r169083119-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,6 +849,9 @@
     <t>07/25/2013</t>
   </si>
   <si>
+    <t>dkdsun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r163127713-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,6 +864,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Milton S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r162664870-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -762,6 +876,9 @@
     <t>06/01/2013</t>
   </si>
   <si>
+    <t>Rosemarie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r161326222-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -771,6 +888,9 @@
     <t>05/20/2013</t>
   </si>
   <si>
+    <t>fmationg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r159089390-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +912,9 @@
     <t>Booked our room, 2 Queen Beds, online with a late check in.  Property is right of the freeway with easy access, and check in process was efficient.  After a long trip, we were in our room after a 5 minute process.The room is spartan, but has some nice amenities, Microwave, Cable TV, refrigerator, Free WiFi.  A desk and numerous outlets for your electronic devices.  The refrigerator is noisy, so since we were not using it, I unplugged it.  Also the cords for the microwave and refrigerator snaked across the desk to an outlet on the wall.  The "closet" is a cabinet attached to the wall with a rod inside to hang your clothes, and there are 2 drawers in the desk for the remainder of your clothes.  Not a complaint, just an observation.  Overall a good bargain for what you get, and will take this property over any Motel 6 hands down.More</t>
   </si>
   <si>
+    <t>Jeffrey D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156741088-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -804,6 +927,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Tim R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156600900-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -813,6 +939,9 @@
     <t>04/04/2013</t>
   </si>
   <si>
+    <t>THOMAS D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r150095583-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -831,6 +960,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Vickivet1954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147855354-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -852,6 +984,9 @@
     <t>I concur with one reviewer who wrote "The location is very convenient and the staff very nice..." We stayed here due to wanting to be at the same hotel some friends had chosen; however, I won't do so again. There is no hair dryer, no iron, the towels are only one step above thin, the phone didn't work (wanted to call front desk about noisy people in next room) and the cleanliness of our room upon arrival was average (better on the 2nd day where it was very obviously cleaned). Noise was definitely a problem two nights out of three, but I encounter that even in upper end hotels where people have no clue. I didn't think the beds were terribly uncomfortable, but I had brought a couple of my own pillows, which always helps.On the plus side, once we got the code, the internet worked. Request the top floor...More</t>
   </si>
   <si>
+    <t>LadyBug06445</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147822788-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -870,6 +1005,9 @@
     <t>The location is very convenient &amp; the staff very nice but I probably won't ever stay here again. The floor I was on smelled like urine &amp; so did my room. You could tell the hallway had not been vacuumed in quite sometime. The floor in my room was just as bad. The walls were dingy &amp; the window lounge was covered with stains. The bathroom wasn't that clean either. There was beard/mustache shavings on the sink. I couldn't sleep well because of the smell but it was so late &amp; I was exhausted. It's a shame too . It's a lovely hotel on the outside. I was very disappointed. =\More</t>
   </si>
   <si>
+    <t>WARREN P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145273135-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -882,6 +1020,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Dale G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145175399-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1038,9 @@
     <t>Will always stay here when visiting family in Ft. Worth - Dallas area.  What makes your hotel so special...the charming lady at the front desk...so friendly and makes the guests feel special.  Always takes the time to visit and make you feel welcome.  Your hotel would be at a loss without her.  This is our third time to your hotel and she always greets us with warmth.  The hotel is convenient....thank goodness it has smoking rooms and windows that open for ventilation....and the price is perfect.  Don't change....it's great.</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144872845-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1050,9 @@
     <t>11/07/2012</t>
   </si>
   <si>
+    <t>DIANE D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144012361-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1065,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Burleson12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143728270-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1077,9 @@
     <t>10/25/2012</t>
   </si>
   <si>
+    <t>CALEB S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143482904-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1095,9 @@
     <t>The rooms where small as expected but were comfortable and had plenty of space for an enjoyable stay. The staff was kind throughout my stay and were happy to help with any questions. The only thing disappointing was the breakfast. It was minimum in its selection and so you might want to plan to eat out for breakfast.</t>
   </si>
   <si>
+    <t>Jack2148</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r119028793-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1116,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>hawkdoctor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r97032627-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1135,9 @@
   </si>
   <si>
     <t>January 2011</t>
+  </si>
+  <si>
+    <t>annikalibby</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r92823879-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1022,6 +1184,9 @@
 The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room....To start with the good:1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something2.) Staff was quite friendly and responded to requests quickly3.) Room was clean4.) Wireless internet was free5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.The bad:1.) Room was very very dim even with the lights turned on2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)5.) The air conditioner sputtered all night--but we still sweated. In January.6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room. If the price is right, there's nothing wrong with this place, but  if you hav3e $16 extra dollars there is definitely better out there...More</t>
   </si>
   <si>
+    <t>motorcity70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r62807182-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1208,9 @@
     <t>Microtel Fort Worth South is basically in Burleson. Access to I-35W is reasonably easy and non-rush hour commute time to the center of Fort Worth takes about 15-20 minutes. The hotel was clean, with nice bedding and basic amenities. Some reasonable amentities were omitted like shampoo in the room. The desk will provide it for free if you ask but at over $50 a night, shouldn't it just be placed in the room? Likewise for a hair dryer, it has to be borrowed from the desk. The breakfast is basic, but nice to have available. Television offered a good selection of channels. No restaurants at the exit so you'll need a car. Next exit south offers many places to eat and Burleson is just a bit further. Watch your room placement, road noise was noticable, but our room was in the front that faced the freeway. It wasn't a real nuisance for us. This Microtel represented a good, economical choice on race weekend when we had to be in town for a wedding. If some business takes you to South Fort Worth you could do a lot worse than staying here. All in all, not a bad place.More</t>
   </si>
   <si>
+    <t>rixter26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r49090912-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1226,9 @@
     <t>very spacious and comfortable. enjoyed the decor. not to close to restaurants tho.</t>
   </si>
   <si>
+    <t>katncol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r30216577-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1247,9 @@
     <t>May 2009</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3645834-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1266,9 @@
   </si>
   <si>
     <t>When we got there the people are very nice to deal with I had no issue with that at all. Polite and courteous were words that come to mind. They even let us check in early (thank you for that). The lobby and hallways very very clean and nice looking. I had high hopes.That is unforunately where the plesantness ends. The hallway where our room was located smelled. It smelled like a house full of cats. I don't know why .... and it wasn't horribly strong but it was there and not very pleasant. The  rooms were very institutional with glaring flourescent lighting and light switches in weird places. When we turned the air on this moldy musty smell permeated the whole room and did so the whole time we were there. The smell was there when we entered but got worse the longer we were there. Basically the longer the air was on the worse it got. The bathroom wasn't the cleanest it was clean but there was a hair on the outside of the tub and I killed 2 spiders later in the evening in the shower.I would not stay there again in fact this is my second bad experience with Priceline hotels and i just can't use that service anymore.Sorry to burst anyones bubble but sometimes good deals are not that good in the end.More</t>
+  </si>
+  <si>
+    <t>futurelawyer2005</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3253315-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1616,43 +1793,47 @@
       <c r="A2" t="n">
         <v>33431</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169408</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1664,56 +1845,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33431</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>20309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1731,56 +1916,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33431</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1798,54 +1987,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33431</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>6966</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1867,56 +2060,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33431</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1928,56 +2125,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33431</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2001,50 +2202,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33431</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169411</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2066,56 +2271,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33431</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9540</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2131,56 +2340,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33431</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>8131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2202,56 +2415,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33431</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>7819</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2275,35 +2492,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33431</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169412</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2311,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2335,36 +2556,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33431</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2372,10 +2594,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2396,36 +2618,37 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33431</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>34686</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2433,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2457,51 +2680,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33431</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>28947</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2525,50 +2749,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33431</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>4188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2592,35 +2820,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33431</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>2595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2628,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2652,51 +2884,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33431</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169414</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2720,35 +2953,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33431</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>15713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2756,10 +2993,10 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2780,36 +3017,37 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33431</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>35769</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2817,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2841,36 +3079,37 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33431</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2878,10 +3117,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2902,51 +3141,52 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33431</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169415</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2970,35 +3210,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33431</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7759</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3006,10 +3250,10 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3030,51 +3274,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33431</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169416</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3098,50 +3343,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33431</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3165,50 +3414,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33431</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169417</v>
+      </c>
+      <c r="C26" t="s">
+        <v>211</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3232,50 +3485,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33431</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>24747</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3289,35 +3546,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33431</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2648</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3325,10 +3586,10 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3349,51 +3610,52 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33431</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>19649</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3417,35 +3679,39 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33431</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>536</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3453,10 +3719,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3477,36 +3743,37 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33431</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>169418</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3514,10 +3781,10 @@
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3538,36 +3805,37 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33431</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -3575,10 +3843,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3599,36 +3867,37 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33431</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>130143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>250</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -3636,10 +3905,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -3660,36 +3929,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33431</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169419</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3697,10 +3967,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3721,51 +3991,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33431</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>169420</v>
+      </c>
+      <c r="C35" t="s">
+        <v>260</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3789,35 +4060,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33431</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>169421</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -3825,10 +4100,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3849,36 +4124,37 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33431</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>169422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -3886,10 +4162,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3910,36 +4186,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33431</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169423</v>
+      </c>
+      <c r="C38" t="s">
+        <v>277</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J38" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -3947,10 +4224,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3971,36 +4248,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33431</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>22956</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4008,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -4030,36 +4308,37 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33431</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169424</v>
+      </c>
+      <c r="C40" t="s">
+        <v>286</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="J40" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4067,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4091,51 +4370,52 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33431</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>169425</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4159,48 +4439,52 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33431</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>51007</v>
+      </c>
+      <c r="C42" t="s">
+        <v>298</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="O42" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4224,35 +4508,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33431</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C43" t="s">
+        <v>303</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4260,10 +4548,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4284,51 +4572,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33431</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>169426</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4352,50 +4641,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33431</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>169427</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4419,41 +4712,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33431</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>169428</v>
+      </c>
+      <c r="C46" t="s">
+        <v>322</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="J46" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="K46" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
@@ -4482,35 +4779,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33431</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>169429</v>
+      </c>
+      <c r="C47" t="s">
+        <v>329</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="J47" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4518,10 +4819,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4540,51 +4841,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33431</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>15624</v>
+      </c>
+      <c r="C48" t="s">
+        <v>334</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="J48" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="K48" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4608,35 +4910,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33431</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="J49" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -4644,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4668,49 +4974,50 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33431</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>169430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>344</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="J50" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4734,35 +5041,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33431</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>169431</v>
+      </c>
+      <c r="C51" t="s">
+        <v>349</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="J51" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4770,10 +5081,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -4794,51 +5105,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33431</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>169432</v>
+      </c>
+      <c r="C52" t="s">
+        <v>353</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="J52" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="K52" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4862,50 +5174,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33431</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>133950</v>
+      </c>
+      <c r="C53" t="s">
+        <v>359</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="J53" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="K53" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -4929,50 +5245,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33431</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>169433</v>
+      </c>
+      <c r="C54" t="s">
+        <v>366</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -4996,50 +5316,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33431</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>169434</v>
+      </c>
+      <c r="C55" t="s">
+        <v>373</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="J55" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5063,50 +5387,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33431</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>169435</v>
+      </c>
+      <c r="C56" t="s">
+        <v>380</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="J56" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="K56" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5130,41 +5458,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33431</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>169436</v>
+      </c>
+      <c r="C57" t="s">
+        <v>388</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5183,50 +5515,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33431</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>169437</v>
+      </c>
+      <c r="C58" t="s">
+        <v>394</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="K58" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="L58" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5250,41 +5586,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33431</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>401</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="J59" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="K59" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -5311,41 +5651,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33431</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>72787</v>
+      </c>
+      <c r="C60" t="s">
+        <v>408</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="J60" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -5372,7 +5716,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_577.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Brooklyn L</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r574826893-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>225119</t>
+  </si>
+  <si>
+    <t>574826893</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Did not allow me to stay</t>
+  </si>
+  <si>
+    <t>I called this motel about a week before I was traveling through the city.  I was traveling with 3 dogs that are very well behaved.  I always bring my own blankets to cover the furniture &amp; bed to protect the furnishings.  I was told that they would allow my three dogs paying $25 per dog that would be refunded once the room was inspected.Upon my arrival, I was told there is a 2 dog limit and had to be under 30 pounds.   Needless to say I could not leave my dogs out in my vehicle. I had driven over 10 hours to get to this city.  I had to start calling other motels in the area.  Called both LaQuinta's...talked to staff there &amp; never got a call back.  I finally got hold of Quality Suites and they accommodated by needs.This Motel 6 is totally untrustworthy.  And when I was checking in...the other guests were very rowdy &amp; loudMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>I called this motel about a week before I was traveling through the city.  I was traveling with 3 dogs that are very well behaved.  I always bring my own blankets to cover the furniture &amp; bed to protect the furnishings.  I was told that they would allow my three dogs paying $25 per dog that would be refunded once the room was inspected.Upon my arrival, I was told there is a 2 dog limit and had to be under 30 pounds.   Needless to say I could not leave my dogs out in my vehicle. I had driven over 10 hours to get to this city.  I had to start calling other motels in the area.  Called both LaQuinta's...talked to staff there &amp; never got a call back.  I finally got hold of Quality Suites and they accommodated by needs.This Motel 6 is totally untrustworthy.  And when I was checking in...the other guests were very rowdy &amp; loudMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r409764884-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>409764884</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>AWFUL😡💩</t>
+  </si>
+  <si>
+    <t>We (dog)needed a place while my RV is being repaired and was needing the room for a week and pet friendly. Disgusting, dirty and smelled. Holes in the bathroom wall, holes in the bed spread. Cable TV was snowy. It was bad enough that I sent photos to the Motel 6 Corp office. Stay at Motel 6 for the pet friendly option. Don't waste you time and money here. Several other options close by. Be rebooking somewhere else tomorrow. ️️️️</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r357986422-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>225119</t>
-  </si>
-  <si>
     <t>357986422</t>
   </si>
   <si>
@@ -192,9 +240,6 @@
     <t>This place is not worth slumming it for. If you are on a limited budget and really need the cheapest place to stay and don't care what it's like - I will tell you to sleep outside and avoid this place.Front desk is extremely rude, man and woman who manned it while we visited.While we were gone visiting friends one day we came back to find my boyfriends hydrocodone pills were stolen out of his bag which were in a sock.Ridiculous.We stay at SOOO many places and we may be used to nicer accommodations but this place was absolutely appalling. We checked out early and thankfully travelocity refunded our un-stayed nights.Not worth writing anymore.More</t>
   </si>
   <si>
-    <t>H M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r298760324-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,9 +258,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded September 2, 2015</t>
   </si>
   <si>
@@ -225,9 +267,6 @@
     <t>I have visited this hotel many times and the customer service is wonderful. Pete is an amazing gentlemen who will make you stay worth while.  Single rooms are small but what do you expect, it's a Microtel. That is the concept- economical clean room.More</t>
   </si>
   <si>
-    <t>Lenita H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r297239703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,7 +291,55 @@
     <t>I am a KLLM student who has recently stayed at Microtel for some time and I am soooo glad the staff was helpful, concerned about students getting to and from school on time, assisted in any way possible to provide what was needed in the room, and just showed genuine interest in us as customers.  I would stay again and again.  The van driver was the best!!!More</t>
   </si>
   <si>
-    <t>Tara C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r291198854-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>291198854</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r288169382-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>288169382</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>I felt very uncomfortable and unsafe. There was gang writing on a picture in the room and it smelt musty and old. The staff was unfriendly and not very accommodating. The ac was turned off when we got there and room was very hot. Breakfast was stale cereal and old bagels. Never ever again this place sucked.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>I felt very uncomfortable and unsafe. There was gang writing on a picture in the room and it smelt musty and old. The staff was unfriendly and not very accommodating. The ac was turned off when we got there and room was very hot. Breakfast was stale cereal and old bagels. Never ever again this place sucked.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r286044928-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -264,27 +351,9 @@
     <t>07/06/2015</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded August 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 6, 2015</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>red99buell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r285181231-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,9 +372,6 @@
     <t>I have had a pleasurable time staying at other locations. This time we selected a location we have stayed at at least 7 times in the last year and have been impressed with the value. We go to check in tonight and they don't have our reservation. We pull it up on email and it is for the South Fort Worth location. We call Wyndham CRS and explain what is going on. The CRS person then calls the south location and the guy will not release the reservation. So instead of paying for a room and not using it we drive 45 minutes to this dive. The guys didn't care at all about the customer. He was very unprofessional. Due to this I will not be staying in another Wyndham property. More</t>
   </si>
   <si>
-    <t>Joe W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r279630786-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,13 +387,31 @@
     <t xml:space="preserve">great rate, but ZERO amenities. have to go to front desk for a hair dryer. ultra limited breakfast but again, it beat staying in a motel 6. nice staff up front  </t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Bre C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r276957031-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>276957031</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r272865842-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>272865842</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r271650703-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -345,21 +429,9 @@
     <t>Had my family of 20 stay at Microtel for one night and they loved it! From the quick check-in to the free breakfast the next morning. :)MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>ManagementTeamGM, Manager at Motel 6 Fort Worth - Burleson, responded to this reviewResponded June 8, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 8, 2015</t>
-  </si>
-  <si>
     <t>Had my family of 20 stay at Microtel for one night and they loved it! From the quick check-in to the free breakfast the next morning. :)More</t>
   </si>
   <si>
-    <t>Debbie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r269221416-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -381,9 +453,6 @@
     <t>Really loved this place.  It was in a great location for our needs. The room was very clean, bed comfortable and great breakfast. The price was just right!  Upon arrival, we were warmly welcomed by the staff and general manager, Carlton, who went out of his way to be accommodating!  Thank you  Carlton, we will be back :-)More</t>
   </si>
   <si>
-    <t>Sandra K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r262762802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,7 +474,28 @@
     <t>I almost didn't book this room due to mixed reviews on Trip Advisor. I booked the 2 queen bedroom, which was new, very spacious, and clean. I actually wish I could have stayed longer. Based on reviews, I did bring some breakfast food and their breakfast was not so great. It was also weird that there was no shampoo or conditioner. however, it was overall a good stay.More</t>
   </si>
   <si>
-    <t>Donald H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r261620270-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>261620270</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Decent for a short stay</t>
+  </si>
+  <si>
+    <t>Got in late around 1am and checked in quickly. Room was dated, bed was pretty hard and uncomfortable. Got up early to get back on the road and checked out the breakfast before. It looked terrible, didn't get anything.Good enough for a short one night stay, but wouldn't stay any longer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r259839376-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>259839376</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r257348658-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -426,9 +516,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>collegetravel3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r254392702-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,9 +525,6 @@
     <t>02/15/2015</t>
   </si>
   <si>
-    <t>tender1958</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r252175213-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,7 +537,40 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Glen L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r245943354-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>245943354</t>
+  </si>
+  <si>
+    <t>12/26/2014</t>
+  </si>
+  <si>
+    <t>Clean and Affordable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very clean. bed comfortable. The price is just right. better than other expensive hotels around the area.  </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r242317310-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>242317310</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Very basic, not 3 star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old decor, hard mattress, and tiny rooms. "breakfast" consists of a few stale pastries in a case as well as fruitloops. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r240297348-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -465,12 +582,6 @@
     <t>11/17/2014</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t>Yolanda M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r237889697-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -489,9 +600,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Cathy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r235715368-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -507,7 +615,25 @@
     <t xml:space="preserve">The hotel itself was very clean - however it's older and needs some updating and upgrading for sure.  The rooms with one full size bed are extremely small.  I've never had a hotel room this small so it was kind of humorous to us to have such a small room! </t>
   </si>
   <si>
-    <t>Mary S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r226785198-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>226785198</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r225937458-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>225937458</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r224903560-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -519,12 +645,6 @@
     <t>08/27/2014</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>lcarranza2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r223498770-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,9 +660,6 @@
     <t>It was a decent place, unfortunately a couple of crickets and water roaches tried to stay without pitching in. Needs a little updating but stayed to only sleep a few hours.</t>
   </si>
   <si>
-    <t>Jane M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r222776687-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,7 +669,37 @@
     <t>08/18/2014</t>
   </si>
   <si>
-    <t>Stuart L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r222503346-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>222503346</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Never trust central reservations for Microtel and they are...</t>
+  </si>
+  <si>
+    <t>Never trust central reservations for Microtel and they are useless for resolving problems. The manager of this hotel fixed their foul-up and was a life saver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r220577731-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>220577731</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Bring your own shampoo and maybe your own pillow</t>
+  </si>
+  <si>
+    <t>Never been to a hotel that doesn't offer shampoo.  You get one bar of soap, but that's it.  More of a motel 6 style motel, only difference is the doors are inside the building instead of outside.  Very ghetto area and the beds were lumpy and pillows just terrible.   Obviously this is my first time at a Microtel, I thought since they were part of the Wyndham family they'd be good, but I would NEVER stay at one again and can't believe that Wyndham lessens their brand name with a dump like this.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r216421889-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -564,12 +711,6 @@
     <t>07/20/2014</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>William M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214387134-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -579,9 +720,6 @@
     <t>07/08/2014</t>
   </si>
   <si>
-    <t>Mk A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r214003656-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,7 +738,28 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t>Lashawn H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r213829314-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213829314</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Exactly what I expected</t>
+  </si>
+  <si>
+    <t>I booked my 1 queen-sized bed for $46/night.  I was in town for 4 days for work, and I knew that I wouldn't need much in terms of a motel room.  I got an older property, with a room that was about 12' x 10' and a tiny bathroom - but that's exactly what I expected.  The breakfast wasn't much to write home about: mini-muffins, bread, bagels, cold cereal, coffee, milk, OJ, and apple juice.  The room was quiet and the bed was comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r213379704-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213379704</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r213033802-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -612,9 +771,6 @@
     <t>07/01/2014</t>
   </si>
   <si>
-    <t>Wilma S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r211414594-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -630,9 +786,6 @@
     <t>Single room does not have anything extra i.e. refrigerator, coffee pot, microwave, hair dryer. The room was very, very small.  Had nothing extra.  It was clean but there was only cereal and tiny muffins for breakfast with coffee, milk or orange juice to drink.  This had no swimming pool or gym that we were aware of.</t>
   </si>
   <si>
-    <t>RippedOff42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r210576196-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,7 +804,28 @@
     <t>it was late, we were driving from OKC to San Antino. wanted to get south of Ft Worth. We made it, picked the mictotell Inn and Suites in South Fort Worth. after getting the front desk person to come to the window, He was SLOW real SLOW, tried wanting to rest. Gave us a room, guess what the door would not open. So back down, He came up to attempt to get the door open. He could not either, So back down, wife waiting in the hall with our stuff, again SLOW. once in the room was average. Nothing like the photo's behind the front desk. My wife and I rolled into the middle of the bed, just like we do when sleeping on an air mattress while caming out. Shower OK, TV OK, AC OK. ready to get down the road. It was 730am there free breakfast was a joke, not may options and even worst. NO COFFEE, they were out had to wait an a new pot. I could have brewed a pot on my camp stove quicker then I got some fresh coffee that am. Would I stay here again, NO Shame on the Wyndham group you are better than that.More</t>
   </si>
   <si>
-    <t>teddybear1935</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r210072291-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>210072291</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>the price wasquite reasonable compred to others in the same area.  Acess to interstate and other establishments were easy.  Would like to have a refrigerator in room .  checked out about 4:55am, no breakfast available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r209858108-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>209858108</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r207529340-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -675,9 +849,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Craig S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205670203-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,9 +867,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Sharon H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r205007161-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -708,7 +876,34 @@
     <t>05/10/2014</t>
   </si>
   <si>
-    <t>Glen E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r202112356-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>202112356</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Not like the other Microtel we've stayed in. Don't stay here!</t>
+  </si>
+  <si>
+    <t>The price was fine for what we got, but talking about price...there was not shampoo in the room or coffee pot. We stayed in room 202 and the noise from the interstate was horrible. The ac wasn't working as it should, so it was uncomfortable. Make sure you book ahead of time because when I called direct, the lady told me it was $69.00, and was reduced from $79.00. I declined and went on Booking.com on my phone and got the room for $49.00. This was so disappointing because we have stayed at the Microtel in Aransas Pass and it was far superior than this. Hated location of the TV. It was on top of amour.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The price was fine for what we got, but talking about price...there was not shampoo in the room or coffee pot. We stayed in room 202 and the noise from the interstate was horrible. The ac wasn't working as it should, so it was uncomfortable. Make sure you book ahead of time because when I called direct, the lady told me it was $69.00, and was reduced from $79.00. I declined and went on Booking.com on my phone and got the room for $49.00. This was so disappointing because we have stayed at the Microtel in Aransas Pass and it was far superior than this. Hated location of the TV. It was on top of amour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r201868226-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>201868226</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r201723807-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -726,12 +921,6 @@
     <t>I reserved and confirmed a non-smoking room. I checked in it was a smoking room. They did not have non-smoking rooms available. The races were in town, it was 9:00 at night in Ft. Worth TX and I was told there were no availabilities anywhere. The room was not clean, smelled horrible of cigarette smoke. We sprayed the room with deodorizer; needless to say; that didn't work and had to open the windows due to smell. It was a cold night. I would not recommend this motel.</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
-    <t>Melanie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200390289-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,9 +930,6 @@
     <t>04/08/2014</t>
   </si>
   <si>
-    <t>Jesuis H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r200264062-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,7 +939,22 @@
     <t>04/07/2014</t>
   </si>
   <si>
-    <t>Stephen N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r199651829-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>199651829</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r199472222-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>199472222</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r197947369-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -768,9 +969,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>Lauri H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r193493972-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,9 +981,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Jakeena S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r188821874-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,7 +993,34 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Babs_GP</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r183765014-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>183765014</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r181423513-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>181423513</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Room were pretty nice, pretty clean, tv and wifi were ok...</t>
+  </si>
+  <si>
+    <t>Room were pretty nice, pretty clean, tv and wifi were ok, bed was too hard, shower was not so great, when I and some friends were calling the hotel(for reservations) we all got a different price every time you call. Did not like that.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170780269-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -822,9 +1044,6 @@
     <t>We needed a room for the night after a family reunion in Fort Worth. This property is very inexpensive, so we didn't expect too much. But, all we needed was a place to sleep and it was conveniently located. The service at check-in was very cordial and efficient. The property was clean and well-kept. The room was simple but quite adequate. Breakfast was very limited and unappealing and there were only 4 seats in the room, so we opted for breakfast elsewhere. (Note: No nearby restaurants, we had to drive a few miles) Overall, the accommodations at this property were fine. If you need clean, simple and inexpensive - this is the place.More</t>
   </si>
   <si>
-    <t>Johanna W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r170374474-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,9 +1056,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Etherine E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r169083119-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -849,7 +1065,25 @@
     <t>07/25/2013</t>
   </si>
   <si>
-    <t>dkdsun</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r166816075-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>166816075</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r166105356-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>166105356</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r163127713-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -864,9 +1098,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Milton S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r162664870-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -876,9 +1107,6 @@
     <t>06/01/2013</t>
   </si>
   <si>
-    <t>Rosemarie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r161326222-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -888,7 +1116,25 @@
     <t>05/20/2013</t>
   </si>
   <si>
-    <t>fmationg</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r160997271-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160997271</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r160401665-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>160401665</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r159089390-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -912,9 +1158,6 @@
     <t>Booked our room, 2 Queen Beds, online with a late check in.  Property is right of the freeway with easy access, and check in process was efficient.  After a long trip, we were in our room after a 5 minute process.The room is spartan, but has some nice amenities, Microwave, Cable TV, refrigerator, Free WiFi.  A desk and numerous outlets for your electronic devices.  The refrigerator is noisy, so since we were not using it, I unplugged it.  Also the cords for the microwave and refrigerator snaked across the desk to an outlet on the wall.  The "closet" is a cabinet attached to the wall with a rod inside to hang your clothes, and there are 2 drawers in the desk for the remainder of your clothes.  Not a complaint, just an observation.  Overall a good bargain for what you get, and will take this property over any Motel 6 hands down.More</t>
   </si>
   <si>
-    <t>Jeffrey D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156741088-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -924,12 +1167,6 @@
     <t>04/05/2013</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>Tim R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r156600900-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -939,7 +1176,31 @@
     <t>04/04/2013</t>
   </si>
   <si>
-    <t>THOMAS D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r151888999-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>151888999</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>GRANDKIDS BIRTHDAY</t>
+  </si>
+  <si>
+    <t>For the prices the hotel was okay.  This is the second time we stayed here.  The first time the room was not clean, but this time the room was clean.  Could use some better towels, they were really rough.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r150431460-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150431460</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r150095583-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -957,12 +1218,6 @@
     <t>I regularly stay at the Burleson Microtel because it is a well-kept facility staffed by friendly people at the best rate in town!  My room is always clean and ready, and the staff treats me exceptionally well.</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>Vickivet1954</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147855354-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -984,9 +1239,6 @@
     <t>I concur with one reviewer who wrote "The location is very convenient and the staff very nice..." We stayed here due to wanting to be at the same hotel some friends had chosen; however, I won't do so again. There is no hair dryer, no iron, the towels are only one step above thin, the phone didn't work (wanted to call front desk about noisy people in next room) and the cleanliness of our room upon arrival was average (better on the 2nd day where it was very obviously cleaned). Noise was definitely a problem two nights out of three, but I encounter that even in upper end hotels where people have no clue. I didn't think the beds were terribly uncomfortable, but I had brought a couple of my own pillows, which always helps.On the plus side, once we got the code, the internet worked. Request the top floor...More</t>
   </si>
   <si>
-    <t>LadyBug06445</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147822788-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1005,7 +1257,28 @@
     <t>The location is very convenient &amp; the staff very nice but I probably won't ever stay here again. The floor I was on smelled like urine &amp; so did my room. You could tell the hallway had not been vacuumed in quite sometime. The floor in my room was just as bad. The walls were dingy &amp; the window lounge was covered with stains. The bathroom wasn't that clean either. There was beard/mustache shavings on the sink. I couldn't sleep well because of the smell but it was so late &amp; I was exhausted. It's a shame too . It's a lovely hotel on the outside. I was very disappointed. =\More</t>
   </si>
   <si>
-    <t>WARREN P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147740691-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147740691</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>R and R</t>
+  </si>
+  <si>
+    <t>I had a little trouble sleeping the beds were too hard for me and the pillows.  I also wish it was close to Resturants we were in our big truck.  But all and all it was very nice no real complaints.  thanks much and Merry Christmas</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r147314626-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>147314626</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145273135-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1020,9 +1293,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Dale G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r145175399-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1038,9 +1308,6 @@
     <t>Will always stay here when visiting family in Ft. Worth - Dallas area.  What makes your hotel so special...the charming lady at the front desk...so friendly and makes the guests feel special.  Always takes the time to visit and make you feel welcome.  Your hotel would be at a loss without her.  This is our third time to your hotel and she always greets us with warmth.  The hotel is convenient....thank goodness it has smoking rooms and windows that open for ventilation....and the price is perfect.  Don't change....it's great.</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144872845-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1050,7 +1317,40 @@
     <t>11/07/2012</t>
   </si>
   <si>
-    <t>DIANE D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144610992-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>144610992</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Hotel is on the lower end of the market, but it was a good value for the money spent for the time we spent there. The breakfast was ok, but you are getting what you are paying for. Like most hotels of this values wall thickness is ok. Clean and a good stay for the weekend.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144465743-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>144465743</t>
+  </si>
+  <si>
+    <t>11/04/2012</t>
+  </si>
+  <si>
+    <t>A traumatic night.</t>
+  </si>
+  <si>
+    <t>This is the worst experience in my life in a hotel. When I booked this room I expected  microwave, fridge etc. It was nothing that I had paid for. They put me in a handicapped room which I didn't ask for or pay for on expedia. Come to find out Microtel considers a handicapped room as a regular room. Then I went to take a shower and the shower head flew off where it was hanging above my head and it hit me on the top of the head. I ended up with a headache and dizziness. On inspection of the holder for the shower head I saw the left part of the holder was previously broken off so of course the water pressure threw it off when I was showering. I took pictures. The night staff did nothing but look at it and write a note for the morning staff. I requested to speak to the manager when he got in. He came to the room and said it was a handicapped room and it was hooked on the side hook and I said no it wasn't. It was hooked on metal looking shower head holder. The manager went to take it off the hook and the other side broke off right there. He argued with me saying it was a handicapped room and I kept telling him I was not told it was handicapped when I booked it...This is the worst experience in my life in a hotel. When I booked this room I expected  microwave, fridge etc. It was nothing that I had paid for. They put me in a handicapped room which I didn't ask for or pay for on expedia. Come to find out Microtel considers a handicapped room as a regular room. Then I went to take a shower and the shower head flew off where it was hanging above my head and it hit me on the top of the head. I ended up with a headache and dizziness. On inspection of the holder for the shower head I saw the left part of the holder was previously broken off so of course the water pressure threw it off when I was showering. I took pictures. The night staff did nothing but look at it and write a note for the morning staff. I requested to speak to the manager when he got in. He came to the room and said it was a handicapped room and it was hooked on the side hook and I said no it wasn't. It was hooked on metal looking shower head holder. The manager went to take it off the hook and the other side broke off right there. He argued with me saying it was a handicapped room and I kept telling him I was not told it was handicapped when I booked it and it is not what I paid for. I went to the front desk and asked for an insurance accident form and he told me they don't have any and the insurance company was closed. They took my info and that's all. No refund. Partial or otherwise. No empathy what so ever. What kind of a manager argues with a customer? I will never go to a Microtel again! Unsafe conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst experience in my life in a hotel. When I booked this room I expected  microwave, fridge etc. It was nothing that I had paid for. They put me in a handicapped room which I didn't ask for or pay for on expedia. Come to find out Microtel considers a handicapped room as a regular room. Then I went to take a shower and the shower head flew off where it was hanging above my head and it hit me on the top of the head. I ended up with a headache and dizziness. On inspection of the holder for the shower head I saw the left part of the holder was previously broken off so of course the water pressure threw it off when I was showering. I took pictures. The night staff did nothing but look at it and write a note for the morning staff. I requested to speak to the manager when he got in. He came to the room and said it was a handicapped room and it was hooked on the side hook and I said no it wasn't. It was hooked on metal looking shower head holder. The manager went to take it off the hook and the other side broke off right there. He argued with me saying it was a handicapped room and I kept telling him I was not told it was handicapped when I booked it...This is the worst experience in my life in a hotel. When I booked this room I expected  microwave, fridge etc. It was nothing that I had paid for. They put me in a handicapped room which I didn't ask for or pay for on expedia. Come to find out Microtel considers a handicapped room as a regular room. Then I went to take a shower and the shower head flew off where it was hanging above my head and it hit me on the top of the head. I ended up with a headache and dizziness. On inspection of the holder for the shower head I saw the left part of the holder was previously broken off so of course the water pressure threw it off when I was showering. I took pictures. The night staff did nothing but look at it and write a note for the morning staff. I requested to speak to the manager when he got in. He came to the room and said it was a handicapped room and it was hooked on the side hook and I said no it wasn't. It was hooked on metal looking shower head holder. The manager went to take it off the hook and the other side broke off right there. He argued with me saying it was a handicapped room and I kept telling him I was not told it was handicapped when I booked it and it is not what I paid for. I went to the front desk and asked for an insurance accident form and he told me they don't have any and the insurance company was closed. They took my info and that's all. No refund. Partial or otherwise. No empathy what so ever. What kind of a manager argues with a customer? I will never go to a Microtel again! Unsafe conditions.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r144012361-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1065,9 +1365,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Burleson12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143728270-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1077,9 +1374,6 @@
     <t>10/25/2012</t>
   </si>
   <si>
-    <t>CALEB S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r143482904-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1095,7 +1389,43 @@
     <t>The rooms where small as expected but were comfortable and had plenty of space for an enjoyable stay. The staff was kind throughout my stay and were happy to help with any questions. The only thing disappointing was the breakfast. It was minimum in its selection and so you might want to plan to eat out for breakfast.</t>
   </si>
   <si>
-    <t>Jack2148</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r141688553-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>141688553</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>dissappointment!</t>
+  </si>
+  <si>
+    <t>After having such a great experience at this hotel brand in Austin I was so very dissappointed with this hotel.  The place was not clean,  We had light fixtures missing and not working.  The beds were uncomfortable and the bathroom was not clean.  There is better breakfast at the hotel across from them, weak coffee and apple juice, stale muffins and bagels.the place needs a face lift and throrough cleaning.they did not have updated system, they used paper log in,had to hand enter the credit card and then did not even give me a receipt until I asked for one.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r138277162-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>138277162</t>
+  </si>
+  <si>
+    <t>08/24/2012</t>
+  </si>
+  <si>
+    <t>tErRiBbLe ExPeRiEnCe</t>
+  </si>
+  <si>
+    <t>Can we say false advertisement?? Rooms are nothing like what you see in the pictures, including furniture, deco, and linens. The regular rooms are significantly smaller than the smallest motel 6 room you could ever imagine. The suites are actually twice the size if not bigger. I upgraded to a suite due to the lack of space, graffitti on the bathroom wall, bathroom door, the pipe from the toilet being ripped out of the wall, and the burnt up comforter on the bed. And that isnt even telling you the half of it!!! After paying an additional 30 dollars for ONE NIGHT I was placed in a room with an airconditioner that quit as soon as it finally started working. The temperature in the room was 82 degrees. Once the hotel staff finally got sick of ignoring my calls and came to the room I was then told that I could ONCE AGAIN relocate (move/unpack all my luggage) to another room. Yet again I was refused any type of refund nor did they even try to rectify any situation, not even an apology was given. Worst experience by far.... Do yourself a favor and dont stay here!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Can we say false advertisement?? Rooms are nothing like what you see in the pictures, including furniture, deco, and linens. The regular rooms are significantly smaller than the smallest motel 6 room you could ever imagine. The suites are actually twice the size if not bigger. I upgraded to a suite due to the lack of space, graffitti on the bathroom wall, bathroom door, the pipe from the toilet being ripped out of the wall, and the burnt up comforter on the bed. And that isnt even telling you the half of it!!! After paying an additional 30 dollars for ONE NIGHT I was placed in a room with an airconditioner that quit as soon as it finally started working. The temperature in the room was 82 degrees. Once the hotel staff finally got sick of ignoring my calls and came to the room I was then told that I could ONCE AGAIN relocate (move/unpack all my luggage) to another room. Yet again I was refused any type of refund nor did they even try to rectify any situation, not even an apology was given. Worst experience by far.... Do yourself a favor and dont stay here!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r119028793-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1116,9 +1446,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>hawkdoctor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r97032627-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1135,9 +1462,6 @@
   </si>
   <si>
     <t>January 2011</t>
-  </si>
-  <si>
-    <t>annikalibby</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r92823879-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1184,7 +1508,46 @@
 The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room....To start with the good:1.) Location was nice, right off the interstate and close to restaurants and shops like Walmart if you needed something2.) Staff was quite friendly and responded to requests quickly3.) Room was clean4.) Wireless internet was free5.) Breakfast was available in a cold, continental style until 9:30am. But by 9am several items were depleted and not restocked.The bad:1.) Room was very very dim even with the lights turned on2.) Other hotel occupants looked "shady"; ie several were smoking shirtless outside the entrance when we pulled up3.) The bed was likely not a queen as much as a double judging from the difficulty my boyfriend and I had fitting into it at the same time4.) There was minimal bedding bordering on inadequate--the bed was made up with just sheets, we had to ask at the front desk for one (and it was easily provided, but worn and with holes)5.) The air conditioner sputtered all night--but we still sweated. In January.6.) Extra amenities were nonexistent. Soap was available, as well as small, threadbare towels, but no other toiletries, etc.The verdict: for $50 a night, which is what we paid, it was adequate. For $66 the next night we stayed at a Hampton Inn property and it was leaps and bounds above in almost every category, from the hot breakfast, comfortable beds, and microfridge in the room. If the price is right, there's nothing wrong with this place, but  if you hav3e $16 extra dollars there is definitely better out there...More</t>
   </si>
   <si>
-    <t>motorcity70</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r77008807-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>77008807</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>The worst stay in my 15years on the road in sales</t>
+  </si>
+  <si>
+    <t>Please read all the way through you will love the ending!!!The hallways smelled.  The room was very hot and I had turn the AC on when I walked in.  It took 30 minutes to the cool the room which was probably not cooled in days.Pubic hairs in the sinkThe iron broke and spilled rusty water all over my work shirtHERE IS THE KICKER.  I was in business meetings all morning.  When I returned to the hotel AT 12:36PM (36 MINUTES LATE)my suitcase was sitting in the lobby unsupervised along with a black garbage bag the contained my personal laptop, the rest of my cloths, and my tooth brush and tioletries all mixed together (yes I had tooth paste stains on my cloths).  When I asked to speak to a manager the only response I would get was "check out was at noon".  I called and wrote to Microtel Corporate who was touting JP Powers awards for customer service all over their website.  HA, I did not hear Jack from them either.  Stay away from this hotel and stay away from Microtel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Please read all the way through you will love the ending!!!The hallways smelled.  The room was very hot and I had turn the AC on when I walked in.  It took 30 minutes to the cool the room which was probably not cooled in days.Pubic hairs in the sinkThe iron broke and spilled rusty water all over my work shirtHERE IS THE KICKER.  I was in business meetings all morning.  When I returned to the hotel AT 12:36PM (36 MINUTES LATE)my suitcase was sitting in the lobby unsupervised along with a black garbage bag the contained my personal laptop, the rest of my cloths, and my tooth brush and tioletries all mixed together (yes I had tooth paste stains on my cloths).  When I asked to speak to a manager the only response I would get was "check out was at noon".  I called and wrote to Microtel Corporate who was touting JP Powers awards for customer service all over their website.  HA, I did not hear Jack from them either.  Stay away from this hotel and stay away from Microtel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r71844253-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>71844253</t>
+  </si>
+  <si>
+    <t>07/21/2010</t>
+  </si>
+  <si>
+    <t>Excellence in Customer Service and Clean Facility</t>
+  </si>
+  <si>
+    <t>I was to have surgery on 07-21-2010 and needed to stay at a location near Downtown Fort Worth. For the first time, I used Expedia and they referred me to Microtel Inn and Suites Off of 820 and Beach St. in Fort Worth. Long story short, Expedia gave me the telephone number only to your Hotel and did not tell me that check in time was 3p. I spoke with Employee Alex over the telephone on the afternoon of 07-20-2010. She was the one that explained to me that check in time was 3p, but she would help accomidate me to assure I would have a room. I arrived at Microtel Inn off Beach St. on 07-21-20 around 12p. I spoke with the Hotel Manager who I believe his name is VJ. I am 55 years old and in all the years I have ever stayed at a Hotel or Motel, no one has done more to go out of their way to accomidate me and treat me the way I was treated. Your facility was clean, I slept well and Alex and her Manager were awesome. They could teach others in the area about operating a clean and proficiant Hotel with kindness and caring attitude. Thank you. I will return and tell my family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I was to have surgery on 07-21-2010 and needed to stay at a location near Downtown Fort Worth. For the first time, I used Expedia and they referred me to Microtel Inn and Suites Off of 820 and Beach St. in Fort Worth. Long story short, Expedia gave me the telephone number only to your Hotel and did not tell me that check in time was 3p. I spoke with Employee Alex over the telephone on the afternoon of 07-20-2010. She was the one that explained to me that check in time was 3p, but she would help accomidate me to assure I would have a room. I arrived at Microtel Inn off Beach St. on 07-21-20 around 12p. I spoke with the Hotel Manager who I believe his name is VJ. I am 55 years old and in all the years I have ever stayed at a Hotel or Motel, no one has done more to go out of their way to accomidate me and treat me the way I was treated. Your facility was clean, I slept well and Alex and her Manager were awesome. They could teach others in the area about operating a clean and proficiant Hotel with kindness and caring attitude. Thank you. I will return and tell my family and friends.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r62807182-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1208,9 +1571,6 @@
     <t>Microtel Fort Worth South is basically in Burleson. Access to I-35W is reasonably easy and non-rush hour commute time to the center of Fort Worth takes about 15-20 minutes. The hotel was clean, with nice bedding and basic amenities. Some reasonable amentities were omitted like shampoo in the room. The desk will provide it for free if you ask but at over $50 a night, shouldn't it just be placed in the room? Likewise for a hair dryer, it has to be borrowed from the desk. The breakfast is basic, but nice to have available. Television offered a good selection of channels. No restaurants at the exit so you'll need a car. Next exit south offers many places to eat and Burleson is just a bit further. Watch your room placement, road noise was noticable, but our room was in the front that faced the freeway. It wasn't a real nuisance for us. This Microtel represented a good, economical choice on race weekend when we had to be in town for a wedding. If some business takes you to South Fort Worth you could do a lot worse than staying here. All in all, not a bad place.More</t>
   </si>
   <si>
-    <t>rixter26</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r49090912-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1226,9 +1586,6 @@
     <t>very spacious and comfortable. enjoyed the decor. not to close to restaurants tho.</t>
   </si>
   <si>
-    <t>katncol</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r30216577-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1247,7 +1604,43 @@
     <t>May 2009</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r23445711-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>23445711</t>
+  </si>
+  <si>
+    <t>01/10/2009</t>
+  </si>
+  <si>
+    <t>Lot's of Amenities, great service, friendly staff</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with the room amenities, and what was included in the room rate.  Very clean, comfortable room and great staff.  Would recommend to anyone!</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r19840277-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>19840277</t>
+  </si>
+  <si>
+    <t>09/06/2008</t>
+  </si>
+  <si>
+    <t>Not what we wer told, privacy violated!!</t>
+  </si>
+  <si>
+    <t>We had to evacuated due to the hurricane Gustav.  When I booked the room from the hotel itself I asked about pets and was told it was $10 a day.  That was fair since that's what everyone else said too, and their hotel price was much more affordable and had what we needed with kids and a few days there.  So i reserved the room.  The hotel itself was clean and nice.  But when we decided to leave a day sooner being that we could return home, my husband went to load up the vehicle and when he left a black man, not being racist here, my husband is hispanic.  Anyway he knocked once then entered my room with his key.  One of  my daughters was in the restroom and someone could've been undressed too.  That made me uncomfortable.  He said he needed to inspect the room because of the dog.  He said he didn't see any damage or anything, yea, I knew that, she's trained and well behaved.  My room did smell of vomit due that one of my children threw up from bad food.  I had asked the housekeeper to clean it or give me something so I could clean it and she said ok, ok, but she never came, she probably didnt' understand what I was saying being that she was hispanic. The man kept saying this to me over and over, we're going to have to...We had to evacuated due to the hurricane Gustav.  When I booked the room from the hotel itself I asked about pets and was told it was $10 a day.  That was fair since that's what everyone else said too, and their hotel price was much more affordable and had what we needed with kids and a few days there.  So i reserved the room.  The hotel itself was clean and nice.  But when we decided to leave a day sooner being that we could return home, my husband went to load up the vehicle and when he left a black man, not being racist here, my husband is hispanic.  Anyway he knocked once then entered my room with his key.  One of  my daughters was in the restroom and someone could've been undressed too.  That made me uncomfortable.  He said he needed to inspect the room because of the dog.  He said he didn't see any damage or anything, yea, I knew that, she's trained and well behaved.  My room did smell of vomit due that one of my children threw up from bad food.  I had asked the housekeeper to clean it or give me something so I could clean it and she said ok, ok, but she never came, she probably didnt' understand what I was saying being that she was hispanic. The man kept saying this to me over and over, we're going to have to clean the carpet.  He did this twice to me,and wanted to hang out to talk, was wanting to know if all my kids were my kids...no, they're someone else's I borrowed, come on, what's your point??  So the man told them something, don't know what , but when my husband went to check out they charged him $20, and said that is what they charge, yet I was told by another employee it was $10, which is right because even the better of hotels charged that).  Yet they had a sign at the desk that said no pets allowed!!  So who's right here? $10 told over phone, $20 at check out, or the sign?  sounds like they were taking advantage of the  fact we were evacuees!!  Others had their pets and weren't charged, they told me that themselves outside when i asked them upon leaving.  When I told the girl at the check out counter about what the man had done she said no he shouldn't have done that, but could careless about my privacy rights.  And said to me why was I being racist??  Me racist, if I was being racist it would've been a word that wouldn't have been respectful,so what do you call a black man, white man, hispanic man, uh?  ok, see, so being married to a hispanic, friends with many cultures, sounded to me she was trying to start an issue that was not an issue.  So I told her I would write a review on how they handled the situation. No customer satisfaction here!!!  Can't get their story straight!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>We had to evacuated due to the hurricane Gustav.  When I booked the room from the hotel itself I asked about pets and was told it was $10 a day.  That was fair since that's what everyone else said too, and their hotel price was much more affordable and had what we needed with kids and a few days there.  So i reserved the room.  The hotel itself was clean and nice.  But when we decided to leave a day sooner being that we could return home, my husband went to load up the vehicle and when he left a black man, not being racist here, my husband is hispanic.  Anyway he knocked once then entered my room with his key.  One of  my daughters was in the restroom and someone could've been undressed too.  That made me uncomfortable.  He said he needed to inspect the room because of the dog.  He said he didn't see any damage or anything, yea, I knew that, she's trained and well behaved.  My room did smell of vomit due that one of my children threw up from bad food.  I had asked the housekeeper to clean it or give me something so I could clean it and she said ok, ok, but she never came, she probably didnt' understand what I was saying being that she was hispanic. The man kept saying this to me over and over, we're going to have to...We had to evacuated due to the hurricane Gustav.  When I booked the room from the hotel itself I asked about pets and was told it was $10 a day.  That was fair since that's what everyone else said too, and their hotel price was much more affordable and had what we needed with kids and a few days there.  So i reserved the room.  The hotel itself was clean and nice.  But when we decided to leave a day sooner being that we could return home, my husband went to load up the vehicle and when he left a black man, not being racist here, my husband is hispanic.  Anyway he knocked once then entered my room with his key.  One of  my daughters was in the restroom and someone could've been undressed too.  That made me uncomfortable.  He said he needed to inspect the room because of the dog.  He said he didn't see any damage or anything, yea, I knew that, she's trained and well behaved.  My room did smell of vomit due that one of my children threw up from bad food.  I had asked the housekeeper to clean it or give me something so I could clean it and she said ok, ok, but she never came, she probably didnt' understand what I was saying being that she was hispanic. The man kept saying this to me over and over, we're going to have to clean the carpet.  He did this twice to me,and wanted to hang out to talk, was wanting to know if all my kids were my kids...no, they're someone else's I borrowed, come on, what's your point??  So the man told them something, don't know what , but when my husband went to check out they charged him $20, and said that is what they charge, yet I was told by another employee it was $10, which is right because even the better of hotels charged that).  Yet they had a sign at the desk that said no pets allowed!!  So who's right here? $10 told over phone, $20 at check out, or the sign?  sounds like they were taking advantage of the  fact we were evacuees!!  Others had their pets and weren't charged, they told me that themselves outside when i asked them upon leaving.  When I told the girl at the check out counter about what the man had done she said no he shouldn't have done that, but could careless about my privacy rights.  And said to me why was I being racist??  Me racist, if I was being racist it would've been a word that wouldn't have been respectful,so what do you call a black man, white man, hispanic man, uh?  ok, see, so being married to a hispanic, friends with many cultures, sounded to me she was trying to start an issue that was not an issue.  So I told her I would write a review on how they handled the situation. No customer satisfaction here!!!  Can't get their story straight!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3645834-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1266,9 +1659,6 @@
   </si>
   <si>
     <t>When we got there the people are very nice to deal with I had no issue with that at all. Polite and courteous were words that come to mind. They even let us check in early (thank you for that). The lobby and hallways very very clean and nice looking. I had high hopes.That is unforunately where the plesantness ends. The hallway where our room was located smelled. It smelled like a house full of cats. I don't know why .... and it wasn't horribly strong but it was there and not very pleasant. The  rooms were very institutional with glaring flourescent lighting and light switches in weird places. When we turned the air on this moldy musty smell permeated the whole room and did so the whole time we were there. The smell was there when we entered but got worse the longer we were there. Basically the longer the air was on the worse it got. The bathroom wasn't the cleanest it was clean but there was a hair on the outside of the tub and I killed 2 spiders later in the evening in the shower.I would not stay there again in fact this is my second bad experience with Priceline hotels and i just can't use that service anymore.Sorry to burst anyones bubble but sometimes good deals are not that good in the end.More</t>
-  </si>
-  <si>
-    <t>futurelawyer2005</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d225119-r3253315-Motel_6_Fort_Worth_Burleson-Fort_Worth_Texas.html</t>
@@ -1793,698 +2183,646 @@
       <c r="A2" t="n">
         <v>33431</v>
       </c>
-      <c r="B2" t="n">
-        <v>169408</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>33431</v>
       </c>
-      <c r="B3" t="n">
-        <v>20309</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>33431</v>
       </c>
-      <c r="B4" t="n">
-        <v>169409</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="O4" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>33431</v>
       </c>
-      <c r="B5" t="n">
-        <v>6966</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>33431</v>
       </c>
-      <c r="B6" t="n">
-        <v>169410</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>33431</v>
       </c>
-      <c r="B7" t="n">
-        <v>2376</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>33431</v>
       </c>
-      <c r="B8" t="n">
-        <v>169411</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>104</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>109</v>
-      </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>33431</v>
       </c>
-      <c r="B9" t="n">
-        <v>9540</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>33431</v>
       </c>
-      <c r="B10" t="n">
-        <v>8131</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>33431</v>
       </c>
-      <c r="B11" t="n">
-        <v>7819</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2492,56 +2830,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>33431</v>
       </c>
-      <c r="B12" t="n">
-        <v>169412</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
         <v>3</v>
@@ -2551,258 +2887,273 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>33431</v>
       </c>
-      <c r="B13" t="n">
-        <v>169413</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>33431</v>
       </c>
-      <c r="B14" t="n">
-        <v>34686</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>33431</v>
       </c>
-      <c r="B15" t="n">
-        <v>28947</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" t="s">
+        <v>128</v>
+      </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33431</v>
       </c>
-      <c r="B16" t="n">
-        <v>4188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>4</v>
@@ -2817,189 +3168,188 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>33431</v>
       </c>
-      <c r="B17" t="n">
-        <v>2595</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>33431</v>
       </c>
-      <c r="B18" t="n">
-        <v>169414</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s">
-        <v>173</v>
-      </c>
+      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>33431</v>
       </c>
-      <c r="B19" t="n">
-        <v>15713</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -3008,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3017,99 +3367,99 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>33431</v>
       </c>
-      <c r="B20" t="n">
-        <v>35769</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>33431</v>
       </c>
-      <c r="B21" t="n">
-        <v>13586</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3117,19 +3467,19 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3141,68 +3491,67 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>33431</v>
       </c>
-      <c r="B22" t="n">
-        <v>169415</v>
-      </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3210,50 +3559,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>33431</v>
       </c>
-      <c r="B23" t="n">
-        <v>7759</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -3262,126 +3611,117 @@
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>33431</v>
       </c>
-      <c r="B24" t="n">
-        <v>169416</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" t="s">
-        <v>203</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>203</v>
-      </c>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>33431</v>
       </c>
-      <c r="B25" t="n">
-        <v>136178</v>
-      </c>
-      <c r="C25" t="s">
-        <v>204</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
@@ -3390,19 +3730,19 @@
         <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3414,70 +3754,66 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>33431</v>
       </c>
-      <c r="B26" t="n">
-        <v>169417</v>
-      </c>
-      <c r="C26" t="s">
-        <v>211</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3485,123 +3821,119 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>33431</v>
       </c>
-      <c r="B27" t="n">
-        <v>24747</v>
-      </c>
-      <c r="C27" t="s">
-        <v>219</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
-      </c>
-      <c r="K27" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" t="s">
-        <v>224</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s">
-        <v>224</v>
-      </c>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>33431</v>
       </c>
-      <c r="B28" t="n">
-        <v>2648</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3610,193 +3942,187 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>33431</v>
       </c>
-      <c r="B29" t="n">
-        <v>19649</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
-      </c>
-      <c r="K29" t="s">
-        <v>234</v>
-      </c>
-      <c r="L29" t="s">
-        <v>235</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>33431</v>
       </c>
-      <c r="B30" t="n">
-        <v>536</v>
-      </c>
-      <c r="C30" t="s">
-        <v>237</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
+        <v>211</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" t="s">
+        <v>213</v>
+      </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>33431</v>
       </c>
-      <c r="B31" t="n">
-        <v>169418</v>
-      </c>
-      <c r="C31" t="s">
-        <v>241</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3805,317 +4131,315 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>33431</v>
       </c>
-      <c r="B32" t="n">
-        <v>2910</v>
-      </c>
-      <c r="C32" t="s">
-        <v>245</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+        <v>219</v>
+      </c>
+      <c r="K32" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" t="s">
+        <v>221</v>
+      </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="O32" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>33431</v>
       </c>
-      <c r="B33" t="n">
-        <v>130143</v>
-      </c>
-      <c r="C33" t="s">
-        <v>250</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>226</v>
+      </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>33431</v>
       </c>
-      <c r="B34" t="n">
-        <v>169419</v>
-      </c>
-      <c r="C34" t="s">
-        <v>255</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>33431</v>
       </c>
-      <c r="B35" t="n">
-        <v>169420</v>
-      </c>
-      <c r="C35" t="s">
-        <v>260</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="J35" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35" t="s">
-        <v>264</v>
-      </c>
-      <c r="L35" t="s">
-        <v>265</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>267</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>33431</v>
       </c>
-      <c r="B36" t="n">
-        <v>169421</v>
-      </c>
-      <c r="C36" t="s">
-        <v>268</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="J36" t="s">
-        <v>271</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s">
+        <v>238</v>
+      </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -4124,161 +4448,166 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>33431</v>
       </c>
-      <c r="B37" t="n">
-        <v>169422</v>
-      </c>
-      <c r="C37" t="s">
-        <v>273</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="J37" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="K37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L37" t="s">
+        <v>244</v>
+      </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="O37" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
         <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
         <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33431</v>
       </c>
-      <c r="B38" t="n">
-        <v>169423</v>
-      </c>
-      <c r="C38" t="s">
-        <v>277</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="J38" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>33431</v>
       </c>
-      <c r="B39" t="n">
-        <v>22956</v>
-      </c>
-      <c r="C39" t="s">
-        <v>282</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4286,17 +4615,19 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>1</v>
@@ -4308,51 +4639,54 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>33431</v>
       </c>
-      <c r="B40" t="n">
-        <v>169424</v>
-      </c>
-      <c r="C40" t="s">
-        <v>286</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
+        <v>253</v>
+      </c>
+      <c r="K40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s">
+        <v>255</v>
+      </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
         <v>2</v>
@@ -4361,77 +4695,78 @@
         <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>33431</v>
       </c>
-      <c r="B41" t="n">
-        <v>169425</v>
-      </c>
-      <c r="C41" t="s">
-        <v>290</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="K41" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="L41" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="O41" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4439,68 +4774,66 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>33431</v>
       </c>
-      <c r="B42" t="n">
-        <v>51007</v>
-      </c>
-      <c r="C42" t="s">
-        <v>298</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
-      </c>
-      <c r="K42" t="s"/>
+        <v>264</v>
+      </c>
+      <c r="K42" t="s">
+        <v>265</v>
+      </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="O42" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4508,132 +4841,127 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>33431</v>
       </c>
-      <c r="B43" t="n">
-        <v>1385</v>
-      </c>
-      <c r="C43" t="s">
-        <v>303</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>33431</v>
       </c>
-      <c r="B44" t="n">
-        <v>169426</v>
-      </c>
-      <c r="C44" t="s">
-        <v>307</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="J44" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
         <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4641,395 +4969,361 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>33431</v>
       </c>
-      <c r="B45" t="n">
-        <v>169427</v>
-      </c>
-      <c r="C45" t="s">
-        <v>314</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="J45" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="L45" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>33431</v>
       </c>
-      <c r="B46" t="n">
-        <v>169428</v>
-      </c>
-      <c r="C46" t="s">
-        <v>322</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="J46" t="s">
-        <v>325</v>
-      </c>
-      <c r="K46" t="s">
-        <v>326</v>
-      </c>
-      <c r="L46" t="s">
-        <v>327</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
       <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>282</v>
+      </c>
+      <c r="O46" t="s">
+        <v>70</v>
+      </c>
       <c r="P46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s">
-        <v>328</v>
-      </c>
+      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>33431</v>
       </c>
-      <c r="B47" t="n">
-        <v>169429</v>
-      </c>
-      <c r="C47" t="s">
-        <v>329</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="K47" t="s">
+        <v>289</v>
+      </c>
+      <c r="L47" t="s">
+        <v>290</v>
+      </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="O47" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>33431</v>
       </c>
-      <c r="B48" t="n">
-        <v>15624</v>
-      </c>
-      <c r="C48" t="s">
-        <v>334</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
-      </c>
-      <c r="K48" t="s">
-        <v>338</v>
-      </c>
-      <c r="L48" t="s">
-        <v>339</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s">
-        <v>339</v>
-      </c>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>33431</v>
       </c>
-      <c r="B49" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C49" t="s">
-        <v>340</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+        <v>298</v>
+      </c>
+      <c r="K49" t="s">
+        <v>299</v>
+      </c>
+      <c r="L49" t="s">
+        <v>300</v>
+      </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="O49" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
         <v>2</v>
-      </c>
-      <c r="S49" t="n">
-        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>33431</v>
       </c>
-      <c r="B50" t="n">
-        <v>169430</v>
-      </c>
-      <c r="C50" t="s">
-        <v>344</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="J50" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s"/>
-      <c r="L50" t="s">
-        <v>82</v>
-      </c>
+      <c r="L50" t="s"/>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5040,40 +5334,34 @@
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
-      <c r="Y50" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>33431</v>
       </c>
-      <c r="B51" t="n">
-        <v>169431</v>
-      </c>
-      <c r="C51" t="s">
-        <v>349</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="J51" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5081,92 +5369,89 @@
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="O51" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>33431</v>
       </c>
-      <c r="B52" t="n">
-        <v>169432</v>
-      </c>
-      <c r="C52" t="s">
-        <v>353</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K52" t="s">
-        <v>357</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5174,196 +5459,168 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>33431</v>
       </c>
-      <c r="B53" t="n">
-        <v>133950</v>
-      </c>
-      <c r="C53" t="s">
-        <v>359</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="J53" t="s">
-        <v>362</v>
-      </c>
-      <c r="K53" t="s">
-        <v>363</v>
-      </c>
-      <c r="L53" t="s">
-        <v>364</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="O53" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s">
-        <v>364</v>
-      </c>
+      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>33431</v>
       </c>
-      <c r="B54" t="n">
-        <v>169433</v>
-      </c>
-      <c r="C54" t="s">
-        <v>366</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="J54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K54" t="s">
-        <v>370</v>
-      </c>
-      <c r="L54" t="s">
-        <v>371</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>371</v>
-      </c>
+      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>33431</v>
       </c>
-      <c r="B55" t="n">
-        <v>169434</v>
-      </c>
-      <c r="C55" t="s">
-        <v>373</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="J55" t="s">
-        <v>376</v>
-      </c>
-      <c r="K55" t="s">
-        <v>377</v>
-      </c>
-      <c r="L55" t="s">
-        <v>378</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5372,213 +5629,201 @@
         <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
         <v>3</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s">
-        <v>379</v>
-      </c>
+      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>33431</v>
       </c>
-      <c r="B56" t="n">
-        <v>169435</v>
-      </c>
-      <c r="C56" t="s">
-        <v>380</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
-      </c>
-      <c r="K56" t="s">
-        <v>384</v>
-      </c>
-      <c r="L56" t="s">
-        <v>385</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
-      <c r="Y56" t="s">
-        <v>387</v>
-      </c>
+      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>33431</v>
       </c>
-      <c r="B57" t="n">
-        <v>169436</v>
-      </c>
-      <c r="C57" t="s">
-        <v>388</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="J57" t="s">
-        <v>391</v>
-      </c>
-      <c r="K57" t="s">
-        <v>392</v>
-      </c>
-      <c r="L57" t="s">
-        <v>393</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
       <c r="M57" t="n">
         <v>4</v>
       </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="N57" t="s">
+        <v>328</v>
+      </c>
+      <c r="O57" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s">
-        <v>393</v>
-      </c>
+      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>33431</v>
       </c>
-      <c r="B58" t="n">
-        <v>169437</v>
-      </c>
-      <c r="C58" t="s">
-        <v>394</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="J58" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="K58" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="O58" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5586,64 +5831,66 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>33431</v>
       </c>
-      <c r="B59" t="n">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>401</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="J59" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="K59" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>340</v>
+      </c>
+      <c r="O59" t="s">
+        <v>111</v>
+      </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
-      </c>
-      <c r="R59" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5651,72 +5898,2624 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>33431</v>
       </c>
-      <c r="B60" t="n">
-        <v>72787</v>
-      </c>
-      <c r="C60" t="s">
-        <v>408</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>409</v>
+        <v>342</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
-      </c>
-      <c r="K60" t="s">
-        <v>412</v>
-      </c>
-      <c r="L60" t="s">
-        <v>413</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
       <c r="M60" t="n">
         <v>4</v>
       </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+      <c r="N60" t="s">
+        <v>345</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
       <c r="P60" t="n">
         <v>5</v>
       </c>
       <c r="Q60" t="n">
         <v>4</v>
       </c>
-      <c r="R60" t="s"/>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
-      <c r="Y60" t="s">
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>346</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>347</v>
+      </c>
+      <c r="J61" t="s">
+        <v>348</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>345</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>350</v>
+      </c>
+      <c r="J62" t="s">
+        <v>351</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>345</v>
+      </c>
+      <c r="O62" t="s">
+        <v>111</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" t="s">
+        <v>354</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>355</v>
+      </c>
+      <c r="O63" t="s">
+        <v>111</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>357</v>
+      </c>
+      <c r="J64" t="s">
+        <v>358</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>359</v>
+      </c>
+      <c r="O64" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>361</v>
+      </c>
+      <c r="J65" t="s">
+        <v>362</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>359</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>364</v>
+      </c>
+      <c r="J66" t="s">
+        <v>365</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>359</v>
+      </c>
+      <c r="O66" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>367</v>
+      </c>
+      <c r="J67" t="s">
+        <v>368</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>359</v>
+      </c>
+      <c r="O67" t="s">
+        <v>111</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>370</v>
+      </c>
+      <c r="J68" t="s">
+        <v>371</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>372</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>374</v>
+      </c>
+      <c r="J69" t="s">
+        <v>375</v>
+      </c>
+      <c r="K69" t="s">
+        <v>376</v>
+      </c>
+      <c r="L69" t="s">
+        <v>377</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>378</v>
+      </c>
+      <c r="O69" t="s">
+        <v>111</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>380</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>381</v>
+      </c>
+      <c r="J70" t="s">
+        <v>382</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>372</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>383</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" t="s">
+        <v>385</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>372</v>
+      </c>
+      <c r="O71" t="s">
+        <v>111</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>387</v>
+      </c>
+      <c r="J72" t="s">
+        <v>388</v>
+      </c>
+      <c r="K72" t="s">
+        <v>389</v>
+      </c>
+      <c r="L72" t="s">
+        <v>390</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>391</v>
+      </c>
+      <c r="O72" t="s">
+        <v>111</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>392</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" t="s">
+        <v>394</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>391</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>395</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>396</v>
+      </c>
+      <c r="J74" t="s">
+        <v>397</v>
+      </c>
+      <c r="K74" t="s">
+        <v>398</v>
+      </c>
+      <c r="L74" t="s">
+        <v>399</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>391</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>400</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>401</v>
+      </c>
+      <c r="J75" t="s">
+        <v>402</v>
+      </c>
+      <c r="K75" t="s">
+        <v>403</v>
+      </c>
+      <c r="L75" t="s">
+        <v>404</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>405</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>407</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>408</v>
+      </c>
+      <c r="J76" t="s">
+        <v>409</v>
+      </c>
+      <c r="K76" t="s">
+        <v>410</v>
+      </c>
+      <c r="L76" t="s">
+        <v>411</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>413</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
         <v>414</v>
+      </c>
+      <c r="J77" t="s">
+        <v>415</v>
+      </c>
+      <c r="K77" t="s">
+        <v>416</v>
+      </c>
+      <c r="L77" t="s">
+        <v>417</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>405</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>418</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>419</v>
+      </c>
+      <c r="J78" t="s">
+        <v>420</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>405</v>
+      </c>
+      <c r="O78" t="s">
+        <v>111</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>421</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>422</v>
+      </c>
+      <c r="J79" t="s">
+        <v>423</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>424</v>
+      </c>
+      <c r="O79" t="s">
+        <v>276</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>425</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>426</v>
+      </c>
+      <c r="J80" t="s">
+        <v>427</v>
+      </c>
+      <c r="K80" t="s">
+        <v>428</v>
+      </c>
+      <c r="L80" t="s">
+        <v>429</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>424</v>
+      </c>
+      <c r="O80" t="s">
+        <v>111</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>430</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>431</v>
+      </c>
+      <c r="J81" t="s">
+        <v>432</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>424</v>
+      </c>
+      <c r="O81" t="s">
+        <v>111</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>433</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>434</v>
+      </c>
+      <c r="J82" t="s">
+        <v>435</v>
+      </c>
+      <c r="K82" t="s">
+        <v>436</v>
+      </c>
+      <c r="L82" t="s">
+        <v>437</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>438</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>439</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>440</v>
+      </c>
+      <c r="J83" t="s">
+        <v>441</v>
+      </c>
+      <c r="K83" t="s">
+        <v>442</v>
+      </c>
+      <c r="L83" t="s">
+        <v>443</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>424</v>
+      </c>
+      <c r="O83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>448</v>
+      </c>
+      <c r="O84" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>449</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>450</v>
+      </c>
+      <c r="J85" t="s">
+        <v>451</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>448</v>
+      </c>
+      <c r="O85" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>453</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" t="s">
+        <v>455</v>
+      </c>
+      <c r="L86" t="s">
+        <v>456</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>448</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>457</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>458</v>
+      </c>
+      <c r="J87" t="s">
+        <v>459</v>
+      </c>
+      <c r="K87" t="s">
+        <v>460</v>
+      </c>
+      <c r="L87" t="s">
+        <v>461</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>462</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>464</v>
+      </c>
+      <c r="J88" t="s">
+        <v>465</v>
+      </c>
+      <c r="K88" t="s">
+        <v>466</v>
+      </c>
+      <c r="L88" t="s">
+        <v>467</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>468</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>470</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>471</v>
+      </c>
+      <c r="J89" t="s">
+        <v>472</v>
+      </c>
+      <c r="K89" t="s">
+        <v>473</v>
+      </c>
+      <c r="L89" t="s">
+        <v>474</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>475</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>476</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>477</v>
+      </c>
+      <c r="J90" t="s">
+        <v>478</v>
+      </c>
+      <c r="K90" t="s">
+        <v>479</v>
+      </c>
+      <c r="L90" t="s">
+        <v>480</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>481</v>
+      </c>
+      <c r="O90" t="s">
+        <v>70</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>482</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>483</v>
+      </c>
+      <c r="J91" t="s">
+        <v>484</v>
+      </c>
+      <c r="K91" t="s">
+        <v>485</v>
+      </c>
+      <c r="L91" t="s">
+        <v>486</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>481</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>488</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>489</v>
+      </c>
+      <c r="J92" t="s">
+        <v>490</v>
+      </c>
+      <c r="K92" t="s">
+        <v>491</v>
+      </c>
+      <c r="L92" t="s">
+        <v>492</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>493</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>495</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>496</v>
+      </c>
+      <c r="J93" t="s">
+        <v>497</v>
+      </c>
+      <c r="K93" t="s">
+        <v>498</v>
+      </c>
+      <c r="L93" t="s">
+        <v>499</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>500</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>502</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>503</v>
+      </c>
+      <c r="J94" t="s">
+        <v>504</v>
+      </c>
+      <c r="K94" t="s">
+        <v>505</v>
+      </c>
+      <c r="L94" t="s">
+        <v>506</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>507</v>
+      </c>
+      <c r="O94" t="s">
+        <v>70</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>509</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>510</v>
+      </c>
+      <c r="J95" t="s">
+        <v>511</v>
+      </c>
+      <c r="K95" t="s">
+        <v>512</v>
+      </c>
+      <c r="L95" t="s">
+        <v>513</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>514</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>515</v>
+      </c>
+      <c r="J96" t="s">
+        <v>516</v>
+      </c>
+      <c r="K96" t="s">
+        <v>517</v>
+      </c>
+      <c r="L96" t="s">
+        <v>518</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>519</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>520</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>521</v>
+      </c>
+      <c r="J97" t="s">
+        <v>522</v>
+      </c>
+      <c r="K97" t="s">
+        <v>523</v>
+      </c>
+      <c r="L97" t="s">
+        <v>524</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>525</v>
+      </c>
+      <c r="O97" t="s">
+        <v>276</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>526</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>527</v>
+      </c>
+      <c r="J98" t="s">
+        <v>528</v>
+      </c>
+      <c r="K98" t="s">
+        <v>529</v>
+      </c>
+      <c r="L98" t="s">
+        <v>530</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>531</v>
+      </c>
+      <c r="O98" t="s">
+        <v>111</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>533</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>534</v>
+      </c>
+      <c r="J99" t="s">
+        <v>535</v>
+      </c>
+      <c r="K99" t="s">
+        <v>536</v>
+      </c>
+      <c r="L99" t="s">
+        <v>537</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33431</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>539</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>540</v>
+      </c>
+      <c r="J100" t="s">
+        <v>541</v>
+      </c>
+      <c r="K100" t="s">
+        <v>542</v>
+      </c>
+      <c r="L100" t="s">
+        <v>543</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
